--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6952,28 +6952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5656.557878365874</v>
+        <v>5839.321205861904</v>
       </c>
       <c r="AB2" t="n">
-        <v>7739.552038901889</v>
+        <v>7989.616886530926</v>
       </c>
       <c r="AC2" t="n">
-        <v>7000.900054838311</v>
+        <v>7227.09906437784</v>
       </c>
       <c r="AD2" t="n">
-        <v>5656557.878365874</v>
+        <v>5839321.205861904</v>
       </c>
       <c r="AE2" t="n">
-        <v>7739552.03890189</v>
+        <v>7989616.886530926</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.448841721097459e-07</v>
+        <v>1.008178376941581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.88736979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7000900.054838311</v>
+        <v>7227099.064377841</v>
       </c>
     </row>
     <row r="3">
@@ -7058,28 +7058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2656.075839317514</v>
+        <v>2765.836244840618</v>
       </c>
       <c r="AB3" t="n">
-        <v>3634.160141150468</v>
+        <v>3784.339170274527</v>
       </c>
       <c r="AC3" t="n">
-        <v>3287.320997854722</v>
+        <v>3423.167151216767</v>
       </c>
       <c r="AD3" t="n">
-        <v>2656075.839317514</v>
+        <v>2765836.244840618</v>
       </c>
       <c r="AE3" t="n">
-        <v>3634160.141150468</v>
+        <v>3784339.170274527</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.662500597728276e-07</v>
+        <v>1.602789407344754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.54231770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3287320.997854723</v>
+        <v>3423167.151216767</v>
       </c>
     </row>
     <row r="4">
@@ -7164,28 +7164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2154.033553936375</v>
+        <v>2251.42776664521</v>
       </c>
       <c r="AB4" t="n">
-        <v>2947.243737749318</v>
+        <v>3080.502796307141</v>
       </c>
       <c r="AC4" t="n">
-        <v>2665.962931901089</v>
+        <v>2786.5039329403</v>
       </c>
       <c r="AD4" t="n">
-        <v>2154033.553936375</v>
+        <v>2251427.76664521</v>
       </c>
       <c r="AE4" t="n">
-        <v>2947243.737749319</v>
+        <v>3080502.796307141</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.909870806670393e-07</v>
+        <v>1.833585553950982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.33528645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2665962.931901089</v>
+        <v>2786503.9329403</v>
       </c>
     </row>
     <row r="5">
@@ -7270,28 +7270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1943.405879492299</v>
+        <v>2028.689832442026</v>
       </c>
       <c r="AB5" t="n">
-        <v>2659.053661337751</v>
+        <v>2775.74292822603</v>
       </c>
       <c r="AC5" t="n">
-        <v>2405.277311904929</v>
+        <v>2510.829918935805</v>
       </c>
       <c r="AD5" t="n">
-        <v>1943405.879492299</v>
+        <v>2028689.832442026</v>
       </c>
       <c r="AE5" t="n">
-        <v>2659053.661337751</v>
+        <v>2775742.92822603</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.057930526760715e-06</v>
+        <v>1.957448455984416e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.36360677083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2405277.311904929</v>
+        <v>2510829.918935805</v>
       </c>
     </row>
     <row r="6">
@@ -7376,28 +7376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1822.785918403445</v>
+        <v>1908.155122699192</v>
       </c>
       <c r="AB6" t="n">
-        <v>2494.016109198862</v>
+        <v>2610.82202073979</v>
       </c>
       <c r="AC6" t="n">
-        <v>2255.990712110516</v>
+        <v>2361.648831392104</v>
       </c>
       <c r="AD6" t="n">
-        <v>1822785.918403445</v>
+        <v>1908155.122699192</v>
       </c>
       <c r="AE6" t="n">
-        <v>2494016.109198862</v>
+        <v>2610822.020739791</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.099291679647044e-06</v>
+        <v>2.033977417770762e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.8232421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2255990.712110516</v>
+        <v>2361648.831392104</v>
       </c>
     </row>
     <row r="7">
@@ -7482,28 +7482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1749.34341493448</v>
+        <v>1834.542027029635</v>
       </c>
       <c r="AB7" t="n">
-        <v>2393.528835898043</v>
+        <v>2510.101335664124</v>
       </c>
       <c r="AC7" t="n">
-        <v>2165.093803138753</v>
+        <v>2270.540787137691</v>
       </c>
       <c r="AD7" t="n">
-        <v>1749343.41493448</v>
+        <v>1834542.027029635</v>
       </c>
       <c r="AE7" t="n">
-        <v>2393528.835898043</v>
+        <v>2510101.335664124</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.128608614198528e-06</v>
+        <v>2.088221422287496e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.46516927083333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2165093.803138753</v>
+        <v>2270540.78713769</v>
       </c>
     </row>
     <row r="8">
@@ -7588,28 +7588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1700.559919654325</v>
+        <v>1785.75853174948</v>
       </c>
       <c r="AB8" t="n">
-        <v>2326.781105479816</v>
+        <v>2443.353605245898</v>
       </c>
       <c r="AC8" t="n">
-        <v>2104.716382430614</v>
+        <v>2210.163366429551</v>
       </c>
       <c r="AD8" t="n">
-        <v>1700559.919654325</v>
+        <v>1785758.53174948</v>
       </c>
       <c r="AE8" t="n">
-        <v>2326781.105479816</v>
+        <v>2443353.605245898</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.148588945389666e-06</v>
+        <v>2.12519026613011e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.23079427083333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2104716.382430614</v>
+        <v>2210163.366429551</v>
       </c>
     </row>
     <row r="9">
@@ -7694,28 +7694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1660.813454993172</v>
+        <v>1733.987148183792</v>
       </c>
       <c r="AB9" t="n">
-        <v>2272.398239040161</v>
+        <v>2372.517714259076</v>
       </c>
       <c r="AC9" t="n">
-        <v>2055.523740437126</v>
+        <v>2146.087953459715</v>
       </c>
       <c r="AD9" t="n">
-        <v>1660813.454993172</v>
+        <v>1733987.148183792</v>
       </c>
       <c r="AE9" t="n">
-        <v>2272398.239040161</v>
+        <v>2372517.714259076</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.165021367303874e-06</v>
+        <v>2.155594548916559e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.04361979166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2055523.740437126</v>
+        <v>2146087.953459715</v>
       </c>
     </row>
     <row r="10">
@@ -7800,28 +7800,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1617.393449792895</v>
+        <v>1702.677313234071</v>
       </c>
       <c r="AB10" t="n">
-        <v>2212.989072369706</v>
+        <v>2329.678216788436</v>
       </c>
       <c r="AC10" t="n">
-        <v>2001.784501252411</v>
+        <v>2107.33699750206</v>
       </c>
       <c r="AD10" t="n">
-        <v>1617393.449792895</v>
+        <v>1702677.313234071</v>
       </c>
       <c r="AE10" t="n">
-        <v>2212989.072369706</v>
+        <v>2329678.216788436</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.177439049773133e-06</v>
+        <v>2.178570512613137e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.90690104166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2001784.501252411</v>
+        <v>2107336.99750206</v>
       </c>
     </row>
     <row r="11">
@@ -7906,28 +7906,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1591.259849380063</v>
+        <v>1676.543712821238</v>
       </c>
       <c r="AB11" t="n">
-        <v>2177.231927351788</v>
+        <v>2293.921071770519</v>
       </c>
       <c r="AC11" t="n">
-        <v>1969.439967969535</v>
+        <v>2074.992464219185</v>
       </c>
       <c r="AD11" t="n">
-        <v>1591259.849380063</v>
+        <v>1676543.712821238</v>
       </c>
       <c r="AE11" t="n">
-        <v>2177231.927351788</v>
+        <v>2293921.071770519</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.187615947435909e-06</v>
+        <v>2.197400437747927e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.79622395833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1969439.967969535</v>
+        <v>2074992.464219185</v>
       </c>
     </row>
     <row r="12">
@@ -8012,28 +8012,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1569.635636290144</v>
+        <v>1654.919499731319</v>
       </c>
       <c r="AB12" t="n">
-        <v>2147.644725009209</v>
+        <v>2264.333869427939</v>
       </c>
       <c r="AC12" t="n">
-        <v>1942.676526692632</v>
+        <v>2048.229022942282</v>
       </c>
       <c r="AD12" t="n">
-        <v>1569635.636290143</v>
+        <v>1654919.499731319</v>
       </c>
       <c r="AE12" t="n">
-        <v>2147644.725009209</v>
+        <v>2264333.869427939</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.195645426325806e-06</v>
+        <v>2.212257075927669e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.7099609375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1942676.526692632</v>
+        <v>2048229.022942282</v>
       </c>
     </row>
     <row r="13">
@@ -8118,28 +8118,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1550.043710330485</v>
+        <v>1635.32757377166</v>
       </c>
       <c r="AB13" t="n">
-        <v>2120.838187576432</v>
+        <v>2237.527331995162</v>
       </c>
       <c r="AC13" t="n">
-        <v>1918.428367569227</v>
+        <v>2023.980863818877</v>
       </c>
       <c r="AD13" t="n">
-        <v>1550043.710330485</v>
+        <v>1635327.57377166</v>
       </c>
       <c r="AE13" t="n">
-        <v>2120838.187576432</v>
+        <v>2237527.331995162</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.202554512812462e-06</v>
+        <v>2.225040694826518e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.63671875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1918428.367569227</v>
+        <v>2023980.863818877</v>
       </c>
     </row>
     <row r="14">
@@ -8224,28 +8224,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1531.94150637795</v>
+        <v>1617.225369819126</v>
       </c>
       <c r="AB14" t="n">
-        <v>2096.069953515699</v>
+        <v>2212.759097934429</v>
       </c>
       <c r="AC14" t="n">
-        <v>1896.023979004816</v>
+        <v>2001.576475254466</v>
       </c>
       <c r="AD14" t="n">
-        <v>1531941.50637795</v>
+        <v>1617225.369819126</v>
       </c>
       <c r="AE14" t="n">
-        <v>2096069.953515699</v>
+        <v>2212759.097934429</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.208810037063893e-06</v>
+        <v>2.236615052478177e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.57161458333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1896023.979004816</v>
+        <v>2001576.475254466</v>
       </c>
     </row>
     <row r="15">
@@ -8330,28 +8330,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1518.066225646199</v>
+        <v>1591.325170182839</v>
       </c>
       <c r="AB15" t="n">
-        <v>2077.085182284333</v>
+        <v>2177.321302155898</v>
       </c>
       <c r="AC15" t="n">
-        <v>1878.851087694479</v>
+        <v>1969.520812967779</v>
       </c>
       <c r="AD15" t="n">
-        <v>1518066.225646199</v>
+        <v>1591325.170182839</v>
       </c>
       <c r="AE15" t="n">
-        <v>2077085.182284333</v>
+        <v>2177321.302155897</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.213384972710462e-06</v>
+        <v>2.245079881208496e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.5244140625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1878851.087694478</v>
+        <v>1969520.812967779</v>
       </c>
     </row>
     <row r="16">
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1501.72124367958</v>
+        <v>1574.809596015628</v>
       </c>
       <c r="AB16" t="n">
-        <v>2054.721256867893</v>
+        <v>2154.72396496461</v>
       </c>
       <c r="AC16" t="n">
-        <v>1858.621543931817</v>
+        <v>1949.080133922466</v>
       </c>
       <c r="AD16" t="n">
-        <v>1501721.24367958</v>
+        <v>1574809.596015628</v>
       </c>
       <c r="AE16" t="n">
-        <v>2054721.256867893</v>
+        <v>2154723.964964611</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.218240006457842e-06</v>
+        <v>2.254062964759037e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1858621.543931817</v>
+        <v>1949080.133922466</v>
       </c>
     </row>
     <row r="17">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1488.752437748785</v>
+        <v>1561.840790084834</v>
       </c>
       <c r="AB17" t="n">
-        <v>2036.976764450042</v>
+        <v>2136.97947254676</v>
       </c>
       <c r="AC17" t="n">
-        <v>1842.570560965774</v>
+        <v>1933.029150956423</v>
       </c>
       <c r="AD17" t="n">
-        <v>1488752.437748786</v>
+        <v>1561840.790084834</v>
       </c>
       <c r="AE17" t="n">
-        <v>2036976.764450042</v>
+        <v>2136979.47254676</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.221881281768376e-06</v>
+        <v>2.260800277421944e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.4365234375</v>
       </c>
       <c r="AH17" t="n">
-        <v>1842570.560965774</v>
+        <v>1933029.150956423</v>
       </c>
     </row>
     <row r="18">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1475.104063973858</v>
+        <v>1548.192416309906</v>
       </c>
       <c r="AB18" t="n">
-        <v>2018.302457327431</v>
+        <v>2118.305165424148</v>
       </c>
       <c r="AC18" t="n">
-        <v>1825.67850350539</v>
+        <v>1916.137093496039</v>
       </c>
       <c r="AD18" t="n">
-        <v>1475104.063973858</v>
+        <v>1548192.416309906</v>
       </c>
       <c r="AE18" t="n">
-        <v>2018302.457327431</v>
+        <v>2118305.165424148</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.225522557078911e-06</v>
+        <v>2.26753759008485e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.39908854166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1825678.50350539</v>
+        <v>1916137.093496039</v>
       </c>
     </row>
     <row r="19">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1464.767463457908</v>
+        <v>1537.855815793956</v>
       </c>
       <c r="AB19" t="n">
-        <v>2004.159464482877</v>
+        <v>2104.162172579594</v>
       </c>
       <c r="AC19" t="n">
-        <v>1812.885298048105</v>
+        <v>1903.343888038755</v>
       </c>
       <c r="AD19" t="n">
-        <v>1464767.463457908</v>
+        <v>1537855.815793956</v>
       </c>
       <c r="AE19" t="n">
-        <v>2004159.464482877</v>
+        <v>2104162.172579594</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.228136806019807e-06</v>
+        <v>2.272374635073603e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.373046875</v>
       </c>
       <c r="AH19" t="n">
-        <v>1812885.298048105</v>
+        <v>1903343.888038755</v>
       </c>
     </row>
     <row r="20">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1452.222396572673</v>
+        <v>1525.310748908722</v>
       </c>
       <c r="AB20" t="n">
-        <v>1986.994750521209</v>
+        <v>2086.997458617926</v>
       </c>
       <c r="AC20" t="n">
-        <v>1797.358760296112</v>
+        <v>1887.817350286761</v>
       </c>
       <c r="AD20" t="n">
-        <v>1452222.396572673</v>
+        <v>1525310.748908722</v>
       </c>
       <c r="AE20" t="n">
-        <v>1986994.750521209</v>
+        <v>2086997.458617926</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.230844420994308e-06</v>
+        <v>2.277384431669098e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.34700520833333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1797358.760296111</v>
+        <v>1887817.350286761</v>
       </c>
     </row>
     <row r="21">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1440.771025703043</v>
+        <v>1513.859378039091</v>
       </c>
       <c r="AB21" t="n">
-        <v>1971.326479698553</v>
+        <v>2071.329187795271</v>
       </c>
       <c r="AC21" t="n">
-        <v>1783.185847250213</v>
+        <v>1873.644437240862</v>
       </c>
       <c r="AD21" t="n">
-        <v>1440771.025703043</v>
+        <v>1513859.378039091</v>
       </c>
       <c r="AE21" t="n">
-        <v>1971326.479698553</v>
+        <v>2071329.18779527</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.233178571834394e-06</v>
+        <v>2.281703221837627e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.32259114583333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1783185.847250213</v>
+        <v>1873644.437240862</v>
       </c>
     </row>
     <row r="22">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1431.000214367649</v>
+        <v>1504.088566703697</v>
       </c>
       <c r="AB22" t="n">
-        <v>1957.957624571693</v>
+        <v>2057.960332668411</v>
       </c>
       <c r="AC22" t="n">
-        <v>1771.092896893355</v>
+        <v>1861.551486884004</v>
       </c>
       <c r="AD22" t="n">
-        <v>1431000.214367649</v>
+        <v>1504088.566703697</v>
       </c>
       <c r="AE22" t="n">
-        <v>1957957.624571693</v>
+        <v>2057960.332668411</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.23551272267448e-06</v>
+        <v>2.286022012006157e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.2998046875</v>
       </c>
       <c r="AH22" t="n">
-        <v>1771092.896893355</v>
+        <v>1861551.486884004</v>
       </c>
     </row>
     <row r="23">
@@ -9178,28 +9178,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1419.552556113391</v>
+        <v>1492.64090844944</v>
       </c>
       <c r="AB23" t="n">
-        <v>1942.29443351318</v>
+        <v>2042.297141609897</v>
       </c>
       <c r="AC23" t="n">
-        <v>1756.92457880604</v>
+        <v>1847.383168796689</v>
       </c>
       <c r="AD23" t="n">
-        <v>1419552.556113391</v>
+        <v>1492640.90844944</v>
       </c>
       <c r="AE23" t="n">
-        <v>1942294.43351318</v>
+        <v>2042297.141609897</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.237846873514567e-06</v>
+        <v>2.290340802174687e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.275390625</v>
       </c>
       <c r="AH23" t="n">
-        <v>1756924.57880604</v>
+        <v>1847383.168796689</v>
       </c>
     </row>
     <row r="24">
@@ -9284,28 +9284,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1410.865138292502</v>
+        <v>1483.95349062855</v>
       </c>
       <c r="AB24" t="n">
-        <v>1930.407925188814</v>
+        <v>2030.410633285531</v>
       </c>
       <c r="AC24" t="n">
-        <v>1746.172502153332</v>
+        <v>1836.631092143981</v>
       </c>
       <c r="AD24" t="n">
-        <v>1410865.138292502</v>
+        <v>1483953.49062855</v>
       </c>
       <c r="AE24" t="n">
-        <v>1930407.925188814</v>
+        <v>2030410.633285531</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.239153997985015e-06</v>
+        <v>2.292759324669063e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.26399739583333</v>
       </c>
       <c r="AH24" t="n">
-        <v>1746172.502153332</v>
+        <v>1836631.092143981</v>
       </c>
     </row>
     <row r="25">
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1398.567730057215</v>
+        <v>1471.656082393263</v>
       </c>
       <c r="AB25" t="n">
-        <v>1913.582068717932</v>
+        <v>2013.58477681465</v>
       </c>
       <c r="AC25" t="n">
-        <v>1730.952481808793</v>
+        <v>1821.411071799443</v>
       </c>
       <c r="AD25" t="n">
-        <v>1398567.730057215</v>
+        <v>1471656.082393263</v>
       </c>
       <c r="AE25" t="n">
-        <v>1913582.068717932</v>
+        <v>2013584.77681465</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.241768246925912e-06</v>
+        <v>2.297596369657817e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.23795572916667</v>
       </c>
       <c r="AH25" t="n">
-        <v>1730952.481808793</v>
+        <v>1821411.071799443</v>
       </c>
     </row>
     <row r="26">
@@ -9496,28 +9496,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1387.02762172066</v>
+        <v>1460.115974056708</v>
       </c>
       <c r="AB26" t="n">
-        <v>1897.792383378209</v>
+        <v>1997.795091474926</v>
       </c>
       <c r="AC26" t="n">
-        <v>1716.669741876931</v>
+        <v>1807.12833186758</v>
       </c>
       <c r="AD26" t="n">
-        <v>1387027.62172066</v>
+        <v>1460115.974056708</v>
       </c>
       <c r="AE26" t="n">
-        <v>1897792.383378209</v>
+        <v>1997795.091474927</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.243168737429963e-06</v>
+        <v>2.300187643758935e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.22330729166667</v>
       </c>
       <c r="AH26" t="n">
-        <v>1716669.741876931</v>
+        <v>1807128.33186758</v>
       </c>
     </row>
     <row r="27">
@@ -9602,28 +9602,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1381.160581283699</v>
+        <v>1454.248933619748</v>
       </c>
       <c r="AB27" t="n">
-        <v>1889.764839816803</v>
+        <v>1989.76754791352</v>
       </c>
       <c r="AC27" t="n">
-        <v>1709.408335806297</v>
+        <v>1799.866925796947</v>
       </c>
       <c r="AD27" t="n">
-        <v>1381160.581283699</v>
+        <v>1454248.933619747</v>
       </c>
       <c r="AE27" t="n">
-        <v>1889764.839816803</v>
+        <v>1989767.54791352</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.244009031732395e-06</v>
+        <v>2.301742408219606e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.21516927083333</v>
       </c>
       <c r="AH27" t="n">
-        <v>1709408.335806297</v>
+        <v>1799866.925796947</v>
       </c>
     </row>
     <row r="28">
@@ -9708,28 +9708,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>1375.664152529512</v>
+        <v>1448.75250486556</v>
       </c>
       <c r="AB28" t="n">
-        <v>1882.244383510001</v>
+        <v>1982.247091606718</v>
       </c>
       <c r="AC28" t="n">
-        <v>1702.605621294389</v>
+        <v>1793.064211285039</v>
       </c>
       <c r="AD28" t="n">
-        <v>1375664.152529512</v>
+        <v>1448752.50486556</v>
       </c>
       <c r="AE28" t="n">
-        <v>1882244.383510001</v>
+        <v>1982247.091606718</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.245222790169239e-06</v>
+        <v>2.303988179107241e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.20377604166667</v>
       </c>
       <c r="AH28" t="n">
-        <v>1702605.621294389</v>
+        <v>1793064.211285039</v>
       </c>
     </row>
     <row r="29">
@@ -9814,28 +9814,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>1380.784987800962</v>
+        <v>1453.87334013701</v>
       </c>
       <c r="AB29" t="n">
-        <v>1889.250936243706</v>
+        <v>1989.253644340424</v>
       </c>
       <c r="AC29" t="n">
-        <v>1708.943478468949</v>
+        <v>1799.402068459598</v>
       </c>
       <c r="AD29" t="n">
-        <v>1380784.987800962</v>
+        <v>1453873.34013701</v>
       </c>
       <c r="AE29" t="n">
-        <v>1889250.936243706</v>
+        <v>1989253.644340424</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.245222790169239e-06</v>
+        <v>2.303988179107241e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12.20377604166667</v>
       </c>
       <c r="AH29" t="n">
-        <v>1708943.478468949</v>
+        <v>1799402.068459598</v>
       </c>
     </row>
     <row r="30">
@@ -9920,28 +9920,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>1386.334259489545</v>
+        <v>1459.422611825593</v>
       </c>
       <c r="AB30" t="n">
-        <v>1896.843694584615</v>
+        <v>1996.846402681332</v>
       </c>
       <c r="AC30" t="n">
-        <v>1715.811594610305</v>
+        <v>1806.270184600953</v>
       </c>
       <c r="AD30" t="n">
-        <v>1386334.259489545</v>
+        <v>1459422.611825593</v>
       </c>
       <c r="AE30" t="n">
-        <v>1896843.694584615</v>
+        <v>1996846.402681332</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.245222790169239e-06</v>
+        <v>2.303988179107241e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>12.20377604166667</v>
       </c>
       <c r="AH30" t="n">
-        <v>1715811.594610305</v>
+        <v>1806270.184600953</v>
       </c>
     </row>
   </sheetData>
@@ -10217,28 +10217,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3912.094549110524</v>
+        <v>4053.088502502539</v>
       </c>
       <c r="AB2" t="n">
-        <v>5352.700351524081</v>
+        <v>5545.61449876927</v>
       </c>
       <c r="AC2" t="n">
-        <v>4841.846142536547</v>
+        <v>5016.348834325354</v>
       </c>
       <c r="AD2" t="n">
-        <v>3912094.549110524</v>
+        <v>4053088.502502539</v>
       </c>
       <c r="AE2" t="n">
-        <v>5352700.351524081</v>
+        <v>5545614.498769269</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.691468068686929e-07</v>
+        <v>1.275497084923466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.49283854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4841846.142536547</v>
+        <v>5016348.834325354</v>
       </c>
     </row>
     <row r="3">
@@ -10323,28 +10323,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2138.882200364179</v>
+        <v>2232.906646079899</v>
       </c>
       <c r="AB3" t="n">
-        <v>2926.512987361296</v>
+        <v>3055.161382055509</v>
       </c>
       <c r="AC3" t="n">
-        <v>2647.210695234308</v>
+        <v>2763.581067697946</v>
       </c>
       <c r="AD3" t="n">
-        <v>2138882.200364179</v>
+        <v>2232906.646079898</v>
       </c>
       <c r="AE3" t="n">
-        <v>2926512.987361296</v>
+        <v>3055161.382055508</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.6788685791443e-07</v>
+        <v>1.844941727485284e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.24348958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2647210.695234308</v>
+        <v>2763581.067697946</v>
       </c>
     </row>
     <row r="4">
@@ -10429,28 +10429,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1790.357417438221</v>
+        <v>1884.381773645388</v>
       </c>
       <c r="AB4" t="n">
-        <v>2449.646003533751</v>
+        <v>2578.294275758236</v>
       </c>
       <c r="AC4" t="n">
-        <v>2215.855227056248</v>
+        <v>2332.225488738613</v>
       </c>
       <c r="AD4" t="n">
-        <v>1790357.417438221</v>
+        <v>1884381.773645387</v>
       </c>
       <c r="AE4" t="n">
-        <v>2449646.003533751</v>
+        <v>2578294.275758236</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.079733278577528e-06</v>
+        <v>2.058138266795529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.560546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2215855.227056248</v>
+        <v>2332225.488738613</v>
       </c>
     </row>
     <row r="5">
@@ -10535,28 +10535,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1635.803865549353</v>
+        <v>1718.149850478374</v>
       </c>
       <c r="AB5" t="n">
-        <v>2238.179015417912</v>
+        <v>2350.848424846259</v>
       </c>
       <c r="AC5" t="n">
-        <v>2024.570351490403</v>
+        <v>2126.486750615418</v>
       </c>
       <c r="AD5" t="n">
-        <v>1635803.865549353</v>
+        <v>1718149.850478374</v>
       </c>
       <c r="AE5" t="n">
-        <v>2238179.015417912</v>
+        <v>2350848.424846259</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.139133579706894e-06</v>
+        <v>2.171364408139052e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.80045572916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2024570.351490403</v>
+        <v>2126486.750615418</v>
       </c>
     </row>
     <row r="6">
@@ -10641,28 +10641,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1553.227657990904</v>
+        <v>1635.403050719333</v>
       </c>
       <c r="AB6" t="n">
-        <v>2125.194605231276</v>
+        <v>2237.630602884776</v>
       </c>
       <c r="AC6" t="n">
-        <v>1922.369014837364</v>
+        <v>2024.074278679728</v>
       </c>
       <c r="AD6" t="n">
-        <v>1553227.657990904</v>
+        <v>1635403.050719333</v>
       </c>
       <c r="AE6" t="n">
-        <v>2125194.605231276</v>
+        <v>2237630.602884776</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.176125962361443e-06</v>
+        <v>2.241877598601767e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.36588541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1922369.014837364</v>
+        <v>2024074.278679728</v>
       </c>
     </row>
     <row r="7">
@@ -10747,28 +10747,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1500.301403526425</v>
+        <v>1570.88376583128</v>
       </c>
       <c r="AB7" t="n">
-        <v>2052.77856893142</v>
+        <v>2149.35247091098</v>
       </c>
       <c r="AC7" t="n">
-        <v>1856.864263405421</v>
+        <v>1944.221287722375</v>
       </c>
       <c r="AD7" t="n">
-        <v>1500301.403526425</v>
+        <v>1570883.76583128</v>
       </c>
       <c r="AE7" t="n">
-        <v>2052778.56893142</v>
+        <v>2149352.47091098</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.200272426235168e-06</v>
+        <v>2.287904485326777e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.09733072916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1856864.263405421</v>
+        <v>1944221.287722375</v>
       </c>
     </row>
     <row r="8">
@@ -10853,28 +10853,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1447.237965055178</v>
+        <v>1529.498609129628</v>
       </c>
       <c r="AB8" t="n">
-        <v>1980.174831421374</v>
+        <v>2092.727473727523</v>
       </c>
       <c r="AC8" t="n">
-        <v>1791.189724703348</v>
+        <v>1893.000500796425</v>
       </c>
       <c r="AD8" t="n">
-        <v>1447237.965055178</v>
+        <v>1529498.609129628</v>
       </c>
       <c r="AE8" t="n">
-        <v>1980174.831421374</v>
+        <v>2092727.473727524</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.21843056706821e-06</v>
+        <v>2.322516704143984e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.90201822916667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1791189.724703348</v>
+        <v>1893000.500796425</v>
       </c>
     </row>
     <row r="9">
@@ -10959,28 +10959,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1416.479428231566</v>
+        <v>1498.740072306015</v>
       </c>
       <c r="AB9" t="n">
-        <v>1938.089644368433</v>
+        <v>2050.642286674582</v>
       </c>
       <c r="AC9" t="n">
-        <v>1753.121088835809</v>
+        <v>1854.931864928885</v>
       </c>
       <c r="AD9" t="n">
-        <v>1416479.428231566</v>
+        <v>1498740.072306015</v>
       </c>
       <c r="AE9" t="n">
-        <v>1938089.644368433</v>
+        <v>2050642.286674583</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.231083314138043e-06</v>
+        <v>2.346634792787889e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.7685546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1753121.088835809</v>
+        <v>1854931.864928886</v>
       </c>
     </row>
     <row r="10">
@@ -11065,28 +11065,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389.680933045655</v>
+        <v>1471.941577120104</v>
       </c>
       <c r="AB10" t="n">
-        <v>1901.422760988902</v>
+        <v>2013.975403295052</v>
       </c>
       <c r="AC10" t="n">
-        <v>1719.953641343726</v>
+        <v>1821.764417436803</v>
       </c>
       <c r="AD10" t="n">
-        <v>1389680.933045655</v>
+        <v>1471941.577120104</v>
       </c>
       <c r="AE10" t="n">
-        <v>1901422.760988902</v>
+        <v>2013975.403295052</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.242094101664462e-06</v>
+        <v>2.367623053134493e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1719953.641343726</v>
+        <v>1821764.417436803</v>
       </c>
     </row>
     <row r="11">
@@ -11171,28 +11171,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1363.564276241493</v>
+        <v>1445.824920315943</v>
       </c>
       <c r="AB11" t="n">
-        <v>1865.688798963867</v>
+        <v>1978.241441270017</v>
       </c>
       <c r="AC11" t="n">
-        <v>1687.63007850143</v>
+        <v>1789.440854594506</v>
       </c>
       <c r="AD11" t="n">
-        <v>1363564.276241493</v>
+        <v>1445824.920315943</v>
       </c>
       <c r="AE11" t="n">
-        <v>1865688.798963867</v>
+        <v>1978241.441270017</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.251849273069447e-06</v>
+        <v>2.386217915371397e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.55696614583333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1687630.07850143</v>
+        <v>1789440.854594506</v>
       </c>
     </row>
     <row r="12">
@@ -11277,28 +11277,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1345.031471407752</v>
+        <v>1415.528492858035</v>
       </c>
       <c r="AB12" t="n">
-        <v>1840.331397780698</v>
+        <v>1936.78853263806</v>
       </c>
       <c r="AC12" t="n">
-        <v>1664.692752097846</v>
+        <v>1751.944153382861</v>
       </c>
       <c r="AD12" t="n">
-        <v>1345031.471407752</v>
+        <v>1415528.492858035</v>
       </c>
       <c r="AE12" t="n">
-        <v>1840331.397780698</v>
+        <v>1936788.53263806</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.258320525387605e-06</v>
+        <v>2.3985531210137e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.49348958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1664692.752097846</v>
+        <v>1751944.153382861</v>
       </c>
     </row>
     <row r="13">
@@ -11383,28 +11383,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1326.450783952829</v>
+        <v>1396.947805403112</v>
       </c>
       <c r="AB13" t="n">
-        <v>1814.908481482794</v>
+        <v>1911.365616340157</v>
       </c>
       <c r="AC13" t="n">
-        <v>1641.696163250127</v>
+        <v>1728.947564535142</v>
       </c>
       <c r="AD13" t="n">
-        <v>1326450.783952829</v>
+        <v>1396947.805403112</v>
       </c>
       <c r="AE13" t="n">
-        <v>1814908.481482794</v>
+        <v>1911365.616340156</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.26392250500631e-06</v>
+        <v>2.409231358733902e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.43815104166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1641696.163250127</v>
+        <v>1728947.564535142</v>
       </c>
     </row>
     <row r="14">
@@ -11489,28 +11489,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1306.914148642889</v>
+        <v>1377.411170093172</v>
       </c>
       <c r="AB14" t="n">
-        <v>1788.177595156214</v>
+        <v>1884.634730013576</v>
       </c>
       <c r="AC14" t="n">
-        <v>1617.516435197521</v>
+        <v>1704.767836482536</v>
       </c>
       <c r="AD14" t="n">
-        <v>1306914.148642889</v>
+        <v>1377411.170093172</v>
       </c>
       <c r="AE14" t="n">
-        <v>1788177.595156214</v>
+        <v>1884634.730013576</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.269427898769519e-06</v>
+        <v>2.419725488907204e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1617516.435197521</v>
+        <v>1704767.836482537</v>
       </c>
     </row>
     <row r="15">
@@ -11595,28 +11595,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1290.974377874102</v>
+        <v>1361.471399324385</v>
       </c>
       <c r="AB15" t="n">
-        <v>1766.368097577304</v>
+        <v>1862.825232434667</v>
       </c>
       <c r="AC15" t="n">
-        <v>1597.788405457721</v>
+        <v>1685.039806742736</v>
       </c>
       <c r="AD15" t="n">
-        <v>1290974.377874102</v>
+        <v>1361471.399324385</v>
       </c>
       <c r="AE15" t="n">
-        <v>1766368.097577304</v>
+        <v>1862825.232434667</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.273001575422831e-06</v>
+        <v>2.426537468142506e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.3486328125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1597788.405457721</v>
+        <v>1685039.806742736</v>
       </c>
     </row>
     <row r="16">
@@ -11701,28 +11701,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1273.976665447741</v>
+        <v>1344.473686898024</v>
       </c>
       <c r="AB16" t="n">
-        <v>1743.111077549409</v>
+        <v>1839.568212406772</v>
       </c>
       <c r="AC16" t="n">
-        <v>1576.751002779855</v>
+        <v>1664.00240406487</v>
       </c>
       <c r="AD16" t="n">
-        <v>1273976.665447742</v>
+        <v>1344473.686898025</v>
       </c>
       <c r="AE16" t="n">
-        <v>1743111.077549409</v>
+        <v>1839568.212406772</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.277927454053071e-06</v>
+        <v>2.435926953034407e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.30143229166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1576751.002779855</v>
+        <v>1664002.40406487</v>
       </c>
     </row>
     <row r="17">
@@ -11807,28 +11807,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1259.353686317803</v>
+        <v>1329.850707768086</v>
       </c>
       <c r="AB17" t="n">
-        <v>1723.103272383518</v>
+        <v>1819.560407240881</v>
       </c>
       <c r="AC17" t="n">
-        <v>1558.652714457866</v>
+        <v>1645.904115742881</v>
       </c>
       <c r="AD17" t="n">
-        <v>1259353.686317803</v>
+        <v>1329850.707768086</v>
       </c>
       <c r="AE17" t="n">
-        <v>1723103.272383518</v>
+        <v>1819560.407240881</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.280535272151433e-06</v>
+        <v>2.440897856800709e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.27701822916667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1558652.714457866</v>
+        <v>1645904.115742882</v>
       </c>
     </row>
     <row r="18">
@@ -11913,28 +11913,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1244.3837883864</v>
+        <v>1314.880809836683</v>
       </c>
       <c r="AB18" t="n">
-        <v>1702.620797608486</v>
+        <v>1799.077932465849</v>
       </c>
       <c r="AC18" t="n">
-        <v>1540.125058328029</v>
+        <v>1627.376459613044</v>
       </c>
       <c r="AD18" t="n">
-        <v>1244383.7883864</v>
+        <v>1314880.809836683</v>
       </c>
       <c r="AE18" t="n">
-        <v>1702620.797608486</v>
+        <v>1799077.932465849</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.28362601952727e-06</v>
+        <v>2.44678929830151e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.24772135416667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1540125.058328029</v>
+        <v>1627376.459613044</v>
       </c>
     </row>
     <row r="19">
@@ -12019,28 +12019,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1230.405607404373</v>
+        <v>1300.902628854656</v>
       </c>
       <c r="AB19" t="n">
-        <v>1683.495233715055</v>
+        <v>1779.952368572418</v>
       </c>
       <c r="AC19" t="n">
-        <v>1522.824811409689</v>
+        <v>1610.076212694704</v>
       </c>
       <c r="AD19" t="n">
-        <v>1230405.607404373</v>
+        <v>1300902.628854656</v>
       </c>
       <c r="AE19" t="n">
-        <v>1683495.233715055</v>
+        <v>1779952.368572417</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.286137251770138e-06</v>
+        <v>2.451576094520911e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.22330729166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1522824.811409689</v>
+        <v>1610076.212694704</v>
       </c>
     </row>
     <row r="20">
@@ -12125,28 +12125,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1228.511040327389</v>
+        <v>1299.008061777672</v>
       </c>
       <c r="AB20" t="n">
-        <v>1680.903003457924</v>
+        <v>1777.360138315287</v>
       </c>
       <c r="AC20" t="n">
-        <v>1520.479979970082</v>
+        <v>1607.731381255096</v>
       </c>
       <c r="AD20" t="n">
-        <v>1228511.040327389</v>
+        <v>1299008.061777672</v>
       </c>
       <c r="AE20" t="n">
-        <v>1680903.003457924</v>
+        <v>1777360.138315287</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.286909938614097e-06</v>
+        <v>2.453048954896111e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.21516927083333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1520479.979970082</v>
+        <v>1607731.381255097</v>
       </c>
     </row>
     <row r="21">
@@ -12231,28 +12231,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1234.037804964006</v>
+        <v>1304.534826414289</v>
       </c>
       <c r="AB21" t="n">
-        <v>1688.464966657391</v>
+        <v>1784.922101514754</v>
       </c>
       <c r="AC21" t="n">
-        <v>1527.320240015074</v>
+        <v>1614.571641300089</v>
       </c>
       <c r="AD21" t="n">
-        <v>1234037.804964006</v>
+        <v>1304534.826414289</v>
       </c>
       <c r="AE21" t="n">
-        <v>1688464.966657392</v>
+        <v>1784922.101514754</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.286813352758602e-06</v>
+        <v>2.452864847349211e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.216796875</v>
       </c>
       <c r="AH21" t="n">
-        <v>1527320.240015074</v>
+        <v>1614571.641300089</v>
       </c>
     </row>
   </sheetData>
@@ -12528,28 +12528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1546.976813355107</v>
+        <v>1630.599101938614</v>
       </c>
       <c r="AB2" t="n">
-        <v>2116.641923832775</v>
+        <v>2231.057628227733</v>
       </c>
       <c r="AC2" t="n">
-        <v>1914.632589347773</v>
+        <v>2018.128619498726</v>
       </c>
       <c r="AD2" t="n">
-        <v>1546976.813355107</v>
+        <v>1630599.101938614</v>
       </c>
       <c r="AE2" t="n">
-        <v>2116641.923832775</v>
+        <v>2231057.628227734</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.065471008460844e-06</v>
+        <v>2.269174411132306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.46321614583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1914632.589347773</v>
+        <v>2018128.619498726</v>
       </c>
     </row>
     <row r="3">
@@ -12634,28 +12634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1122.529771054239</v>
+        <v>1195.773868492576</v>
       </c>
       <c r="AB3" t="n">
-        <v>1535.894755274786</v>
+        <v>1636.110560691442</v>
       </c>
       <c r="AC3" t="n">
-        <v>1389.311115473187</v>
+        <v>1479.962465074645</v>
       </c>
       <c r="AD3" t="n">
-        <v>1122529.771054239</v>
+        <v>1195773.868492576</v>
       </c>
       <c r="AE3" t="n">
-        <v>1535894.755274786</v>
+        <v>1636110.560691442</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275957037140192e-06</v>
+        <v>2.717454567407988e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.74837239583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1389311.115473187</v>
+        <v>1479962.465074645</v>
       </c>
     </row>
     <row r="4">
@@ -12740,28 +12740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>997.7555128990529</v>
+        <v>1070.914269482817</v>
       </c>
       <c r="AB4" t="n">
-        <v>1365.173110615089</v>
+        <v>1465.272148909547</v>
       </c>
       <c r="AC4" t="n">
-        <v>1234.882904970478</v>
+        <v>1325.428631539997</v>
       </c>
       <c r="AD4" t="n">
-        <v>997755.5128990528</v>
+        <v>1070914.269482817</v>
       </c>
       <c r="AE4" t="n">
-        <v>1365173.110615089</v>
+        <v>1465272.148909547</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.350322300728901e-06</v>
+        <v>2.87583311724425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.99153645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1234882.904970478</v>
+        <v>1325428.631539996</v>
       </c>
     </row>
     <row r="5">
@@ -12846,28 +12846,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>935.8295791580873</v>
+        <v>1008.988335741852</v>
       </c>
       <c r="AB5" t="n">
-        <v>1280.443316091316</v>
+        <v>1380.542354385776</v>
       </c>
       <c r="AC5" t="n">
-        <v>1158.239603117041</v>
+        <v>1248.78532968656</v>
       </c>
       <c r="AD5" t="n">
-        <v>935829.5791580873</v>
+        <v>1008988.335741852</v>
       </c>
       <c r="AE5" t="n">
-        <v>1280443.316091316</v>
+        <v>1380542.354385776</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.38707382954593e-06</v>
+        <v>2.954104255641592e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.646484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1158239.603117042</v>
+        <v>1248785.32968656</v>
       </c>
     </row>
     <row r="6">
@@ -12952,28 +12952,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>887.9420150332872</v>
+        <v>950.6374186344119</v>
       </c>
       <c r="AB6" t="n">
-        <v>1214.921438205539</v>
+        <v>1300.704055338595</v>
       </c>
       <c r="AC6" t="n">
-        <v>1098.971041296149</v>
+        <v>1176.566685846686</v>
       </c>
       <c r="AD6" t="n">
-        <v>887942.0150332872</v>
+        <v>950637.4186344119</v>
       </c>
       <c r="AE6" t="n">
-        <v>1214921.438205539</v>
+        <v>1300704.055338595</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410137838832863e-06</v>
+        <v>3.003224559503853e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.43977864583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1098971.041296149</v>
+        <v>1176566.685846686</v>
       </c>
     </row>
     <row r="7">
@@ -13058,28 +13058,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>880.8628252740908</v>
+        <v>943.5582288752156</v>
       </c>
       <c r="AB7" t="n">
-        <v>1205.235378465196</v>
+        <v>1291.017995598253</v>
       </c>
       <c r="AC7" t="n">
-        <v>1090.209405502955</v>
+        <v>1167.805050053492</v>
       </c>
       <c r="AD7" t="n">
-        <v>880862.8252740909</v>
+        <v>943558.2288752156</v>
       </c>
       <c r="AE7" t="n">
-        <v>1205235.378465196</v>
+        <v>1291017.995598253</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.414017765628796e-06</v>
+        <v>3.011487788190962e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.40559895833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1090209.405502955</v>
+        <v>1167805.050053492</v>
       </c>
     </row>
   </sheetData>
@@ -13355,28 +13355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2191.439884891113</v>
+        <v>2301.072504498548</v>
       </c>
       <c r="AB2" t="n">
-        <v>2998.424730012445</v>
+        <v>3148.428916809341</v>
       </c>
       <c r="AC2" t="n">
-        <v>2712.259282095596</v>
+        <v>2847.947279836676</v>
       </c>
       <c r="AD2" t="n">
-        <v>2191439.884891113</v>
+        <v>2301072.504498548</v>
       </c>
       <c r="AE2" t="n">
-        <v>2998424.730012445</v>
+        <v>3148428.916809341</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.056798945110777e-07</v>
+        <v>1.838843308072888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.52864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2712259.282095596</v>
+        <v>2847947.279836676</v>
       </c>
     </row>
     <row r="3">
@@ -13461,28 +13461,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1453.112013490079</v>
+        <v>1540.80104100511</v>
       </c>
       <c r="AB3" t="n">
-        <v>1988.211963634732</v>
+        <v>2108.191959647661</v>
       </c>
       <c r="AC3" t="n">
-        <v>1798.459804298449</v>
+        <v>1906.989077884887</v>
       </c>
       <c r="AD3" t="n">
-        <v>1453112.013490079</v>
+        <v>1540801.04100511</v>
       </c>
       <c r="AE3" t="n">
-        <v>1988211.963634732</v>
+        <v>2108191.959647662</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.154886213390094e-06</v>
+        <v>2.34481829391216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1798459.804298449</v>
+        <v>1906989.077884887</v>
       </c>
     </row>
     <row r="4">
@@ -13567,28 +13567,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1276.57171123462</v>
+        <v>1353.374283558022</v>
       </c>
       <c r="AB4" t="n">
-        <v>1746.661733680356</v>
+        <v>1851.746401423592</v>
       </c>
       <c r="AC4" t="n">
-        <v>1579.962789273042</v>
+        <v>1675.018323814121</v>
       </c>
       <c r="AD4" t="n">
-        <v>1276571.71123462</v>
+        <v>1353374.283558022</v>
       </c>
       <c r="AE4" t="n">
-        <v>1746661.733680356</v>
+        <v>1851746.401423592</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.242526002817964e-06</v>
+        <v>2.522757366300816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.505859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1579962.789273042</v>
+        <v>1675018.323814121</v>
       </c>
     </row>
     <row r="5">
@@ -13673,28 +13673,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1195.383758357446</v>
+        <v>1261.214624143199</v>
       </c>
       <c r="AB5" t="n">
-        <v>1635.576794794114</v>
+        <v>1725.649489615007</v>
       </c>
       <c r="AC5" t="n">
-        <v>1479.479641045412</v>
+        <v>1560.955924290421</v>
       </c>
       <c r="AD5" t="n">
-        <v>1195383.758357446</v>
+        <v>1261214.624143199</v>
       </c>
       <c r="AE5" t="n">
-        <v>1635576.794794114</v>
+        <v>1725649.489615007</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288201798955078e-06</v>
+        <v>2.615495024028081e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.02734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1479479.641045412</v>
+        <v>1560955.924290421</v>
       </c>
     </row>
     <row r="6">
@@ -13779,28 +13779,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1131.533250940506</v>
+        <v>1208.250482409337</v>
       </c>
       <c r="AB6" t="n">
-        <v>1548.213713660675</v>
+        <v>1653.181614281714</v>
       </c>
       <c r="AC6" t="n">
-        <v>1400.454369760494</v>
+        <v>1495.404281269634</v>
       </c>
       <c r="AD6" t="n">
-        <v>1131533.250940506</v>
+        <v>1208250.482409337</v>
       </c>
       <c r="AE6" t="n">
-        <v>1548213.713660675</v>
+        <v>1653181.614281713</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.31562789776427e-06</v>
+        <v>2.671179486681471e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.75553385416667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1400454.369760494</v>
+        <v>1495404.281269634</v>
       </c>
     </row>
     <row r="7">
@@ -13885,28 +13885,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1090.346171148669</v>
+        <v>1167.063402617499</v>
       </c>
       <c r="AB7" t="n">
-        <v>1491.859734043763</v>
+        <v>1596.827634664802</v>
       </c>
       <c r="AC7" t="n">
-        <v>1349.478734864913</v>
+        <v>1444.428646374054</v>
       </c>
       <c r="AD7" t="n">
-        <v>1090346.171148669</v>
+        <v>1167063.402617499</v>
       </c>
       <c r="AE7" t="n">
-        <v>1491859.734043763</v>
+        <v>1596827.634664802</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.335217968342265e-06</v>
+        <v>2.710954102862465e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.568359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1349478.734864913</v>
+        <v>1444428.646374054</v>
       </c>
     </row>
     <row r="8">
@@ -13991,28 +13991,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1057.341932546045</v>
+        <v>1123.087457477227</v>
       </c>
       <c r="AB8" t="n">
-        <v>1446.70187874341</v>
+        <v>1536.657806442106</v>
       </c>
       <c r="AC8" t="n">
-        <v>1308.630681894977</v>
+        <v>1390.001342108047</v>
       </c>
       <c r="AD8" t="n">
-        <v>1057341.932546045</v>
+        <v>1123087.457477227</v>
       </c>
       <c r="AE8" t="n">
-        <v>1446701.87874341</v>
+        <v>1536657.806442106</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.348518595208377e-06</v>
+        <v>2.737958973848508e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.44466145833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1308630.681894977</v>
+        <v>1390001.342108047</v>
       </c>
     </row>
     <row r="9">
@@ -14097,28 +14097,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1030.681343083895</v>
+        <v>1096.426868015077</v>
       </c>
       <c r="AB9" t="n">
-        <v>1410.2236840591</v>
+        <v>1500.179611757796</v>
       </c>
       <c r="AC9" t="n">
-        <v>1275.63391491387</v>
+        <v>1357.00457512694</v>
       </c>
       <c r="AD9" t="n">
-        <v>1030681.343083896</v>
+        <v>1096426.868015077</v>
       </c>
       <c r="AE9" t="n">
-        <v>1410223.6840591</v>
+        <v>1500179.611757796</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.357591891055027e-06</v>
+        <v>2.756380901342863e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.36165364583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1275633.91491387</v>
+        <v>1357004.57512694</v>
       </c>
     </row>
     <row r="10">
@@ -14203,28 +14203,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1006.711751663457</v>
+        <v>1072.457276594639</v>
       </c>
       <c r="AB10" t="n">
-        <v>1377.427431613914</v>
+        <v>1467.383359312611</v>
       </c>
       <c r="AC10" t="n">
-        <v>1245.967690772224</v>
+        <v>1327.338350985294</v>
       </c>
       <c r="AD10" t="n">
-        <v>1006711.751663457</v>
+        <v>1072457.276594639</v>
       </c>
       <c r="AE10" t="n">
-        <v>1377427.431613914</v>
+        <v>1467383.359312611</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.364499968574636e-06</v>
+        <v>2.770406687048792e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.29817708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1245967.690772224</v>
+        <v>1327338.350985294</v>
       </c>
     </row>
     <row r="11">
@@ -14309,28 +14309,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1007.29789382085</v>
+        <v>1073.043418752032</v>
       </c>
       <c r="AB11" t="n">
-        <v>1378.229417172427</v>
+        <v>1468.185344871123</v>
       </c>
       <c r="AC11" t="n">
-        <v>1246.693135954625</v>
+        <v>1328.063796167696</v>
       </c>
       <c r="AD11" t="n">
-        <v>1007297.89382085</v>
+        <v>1073043.418752032</v>
       </c>
       <c r="AE11" t="n">
-        <v>1378229.417172427</v>
+        <v>1468185.344871123</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.365737236190088e-06</v>
+        <v>2.77291876807075e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.28678385416667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1246693.135954625</v>
+        <v>1328063.796167696</v>
       </c>
     </row>
   </sheetData>
@@ -14606,28 +14606,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1158.115752696121</v>
+        <v>1228.441260283626</v>
       </c>
       <c r="AB2" t="n">
-        <v>1584.585065299917</v>
+        <v>1680.80752732357</v>
       </c>
       <c r="AC2" t="n">
-        <v>1433.354490646799</v>
+        <v>1520.393615943989</v>
       </c>
       <c r="AD2" t="n">
-        <v>1158115.752696121</v>
+        <v>1228441.260283626</v>
       </c>
       <c r="AE2" t="n">
-        <v>1584585.065299917</v>
+        <v>1680807.52732357</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.201053740736865e-06</v>
+        <v>2.674512085950777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.16927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1433354.490646799</v>
+        <v>1520393.615943989</v>
       </c>
     </row>
     <row r="3">
@@ -14712,28 +14712,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>888.8989803937196</v>
+        <v>959.0538062720819</v>
       </c>
       <c r="AB3" t="n">
-        <v>1216.230800430015</v>
+        <v>1312.219728209273</v>
       </c>
       <c r="AC3" t="n">
-        <v>1100.155439827623</v>
+        <v>1186.983319060935</v>
       </c>
       <c r="AD3" t="n">
-        <v>888898.9803937196</v>
+        <v>959053.8062720819</v>
       </c>
       <c r="AE3" t="n">
-        <v>1216230.800430015</v>
+        <v>1312219.728209273</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.379812624609817e-06</v>
+        <v>3.07257320442826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1100155.439827623</v>
+        <v>1186983.319060935</v>
       </c>
     </row>
     <row r="4">
@@ -14818,28 +14818,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>790.7717824260588</v>
+        <v>861.0118596504417</v>
       </c>
       <c r="AB4" t="n">
-        <v>1081.968839104217</v>
+        <v>1178.074411536124</v>
       </c>
       <c r="AC4" t="n">
-        <v>978.7072516529132</v>
+        <v>1065.640643136937</v>
       </c>
       <c r="AD4" t="n">
-        <v>790771.7824260589</v>
+        <v>861011.8596504417</v>
       </c>
       <c r="AE4" t="n">
-        <v>1081968.839104217</v>
+        <v>1178074.411536125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.441040620526226e-06</v>
+        <v>3.208915992034511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.64322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>978707.2516529132</v>
+        <v>1065640.643136937</v>
       </c>
     </row>
     <row r="5">
@@ -14924,28 +14924,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>782.1319370279497</v>
+        <v>852.3720142523325</v>
       </c>
       <c r="AB5" t="n">
-        <v>1070.147421467447</v>
+        <v>1166.252993899354</v>
       </c>
       <c r="AC5" t="n">
-        <v>968.0140535239319</v>
+        <v>1054.947445007956</v>
       </c>
       <c r="AD5" t="n">
-        <v>782131.9370279497</v>
+        <v>852372.0142523325</v>
       </c>
       <c r="AE5" t="n">
-        <v>1070147.421467446</v>
+        <v>1166252.993899354</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.448540210519643e-06</v>
+        <v>3.225616114099628e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>968014.0535239319</v>
+        <v>1054947.445007956</v>
       </c>
     </row>
   </sheetData>
@@ -15221,28 +15221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4294.028370142278</v>
+        <v>4448.347023546399</v>
       </c>
       <c r="AB2" t="n">
-        <v>5875.279055190746</v>
+        <v>6086.424644836778</v>
       </c>
       <c r="AC2" t="n">
-        <v>5314.550668169063</v>
+        <v>5505.544819083966</v>
       </c>
       <c r="AD2" t="n">
-        <v>4294028.370142277</v>
+        <v>4448347.0235464</v>
       </c>
       <c r="AE2" t="n">
-        <v>5875279.055190747</v>
+        <v>6086424.644836778</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.357604948516871e-07</v>
+        <v>1.202072845611241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.50358072916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5314550.668169064</v>
+        <v>5505544.819083966</v>
       </c>
     </row>
     <row r="3">
@@ -15327,28 +15327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2259.369647776038</v>
+        <v>2366.179379869794</v>
       </c>
       <c r="AB3" t="n">
-        <v>3091.369228441408</v>
+        <v>3237.511016004908</v>
       </c>
       <c r="AC3" t="n">
-        <v>2796.333288042806</v>
+        <v>2928.527508512526</v>
       </c>
       <c r="AD3" t="n">
-        <v>2259369.647776038</v>
+        <v>2366179.379869794</v>
       </c>
       <c r="AE3" t="n">
-        <v>3091369.228441408</v>
+        <v>3237511.016004908</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.410059356951123e-07</v>
+        <v>1.779219835170748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.55598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2796333.288042806</v>
+        <v>2928527.508512526</v>
       </c>
     </row>
     <row r="4">
@@ -15433,28 +15433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1876.061524009992</v>
+        <v>1970.994025776155</v>
       </c>
       <c r="AB4" t="n">
-        <v>2566.91014314358</v>
+        <v>2696.800980186439</v>
       </c>
       <c r="AC4" t="n">
-        <v>2321.927841762969</v>
+        <v>2439.422079621392</v>
       </c>
       <c r="AD4" t="n">
-        <v>1876061.524009992</v>
+        <v>1970994.025776155</v>
       </c>
       <c r="AE4" t="n">
-        <v>2566910.14314358</v>
+        <v>2696800.980186439</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.056346404875522e-06</v>
+        <v>1.997301403818978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.74772135416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2321927.841762969</v>
+        <v>2439422.079621392</v>
       </c>
     </row>
     <row r="5">
@@ -15539,28 +15539,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1709.108977282644</v>
+        <v>1803.956138194236</v>
       </c>
       <c r="AB5" t="n">
-        <v>2338.478303284687</v>
+        <v>2468.252373205349</v>
       </c>
       <c r="AC5" t="n">
-        <v>2115.297216094108</v>
+        <v>2232.685830920592</v>
       </c>
       <c r="AD5" t="n">
-        <v>1709108.977282644</v>
+        <v>1803956.138194236</v>
       </c>
       <c r="AE5" t="n">
-        <v>2338478.303284687</v>
+        <v>2468252.373205349</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.117797509617284e-06</v>
+        <v>2.113490920061437e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.93717447916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2115297.216094108</v>
+        <v>2232685.830920592</v>
       </c>
     </row>
     <row r="6">
@@ -15645,28 +15645,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1620.622908186398</v>
+        <v>1703.592928278949</v>
       </c>
       <c r="AB6" t="n">
-        <v>2217.407759817346</v>
+        <v>2330.931001686924</v>
       </c>
       <c r="AC6" t="n">
-        <v>2005.781475371715</v>
+        <v>2108.470218368131</v>
       </c>
       <c r="AD6" t="n">
-        <v>1620622.908186398</v>
+        <v>1703592.928278949</v>
       </c>
       <c r="AE6" t="n">
-        <v>2217407.759817346</v>
+        <v>2330931.001686924</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.155701929364539e-06</v>
+        <v>2.185159219799777e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.47981770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2005781.475371715</v>
+        <v>2108470.218368131</v>
       </c>
     </row>
     <row r="7">
@@ -15751,28 +15751,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1564.143248092257</v>
+        <v>1635.406719566359</v>
       </c>
       <c r="AB7" t="n">
-        <v>2140.129797169795</v>
+        <v>2237.635622763135</v>
       </c>
       <c r="AC7" t="n">
-        <v>1935.878813018944</v>
+        <v>2024.078819467942</v>
       </c>
       <c r="AD7" t="n">
-        <v>1564143.248092257</v>
+        <v>1635406.719566359</v>
       </c>
       <c r="AE7" t="n">
-        <v>2140129.797169795</v>
+        <v>2237635.622763135</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.180588669602636e-06</v>
+        <v>2.232214164072424e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.19661458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1935878.813018944</v>
+        <v>2024078.819467942</v>
       </c>
     </row>
     <row r="8">
@@ -15857,28 +15857,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1507.615564646259</v>
+        <v>1590.67083608483</v>
       </c>
       <c r="AB8" t="n">
-        <v>2062.786126853592</v>
+        <v>2176.426013375819</v>
       </c>
       <c r="AC8" t="n">
-        <v>1865.916714045196</v>
+        <v>1968.710969292325</v>
       </c>
       <c r="AD8" t="n">
-        <v>1507615.564646259</v>
+        <v>1590670.83608483</v>
       </c>
       <c r="AE8" t="n">
-        <v>2062786.126853592</v>
+        <v>2176426.013375819</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.200210907098058e-06</v>
+        <v>2.269315177825857e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.98014322916667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1865916.714045196</v>
+        <v>1968710.969292325</v>
       </c>
     </row>
     <row r="9">
@@ -15963,28 +15963,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1473.600805656848</v>
+        <v>1556.65607709542</v>
       </c>
       <c r="AB9" t="n">
-        <v>2016.245632979022</v>
+        <v>2129.885519501249</v>
       </c>
       <c r="AC9" t="n">
-        <v>1823.817979586022</v>
+        <v>1926.61223483315</v>
       </c>
       <c r="AD9" t="n">
-        <v>1473600.805656848</v>
+        <v>1556656.07709542</v>
       </c>
       <c r="AE9" t="n">
-        <v>2016245.632979022</v>
+        <v>2129885.519501249</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.214281487155752e-06</v>
+        <v>2.295919319395393e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.83040364583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1823817.979586022</v>
+        <v>1926612.23483315</v>
       </c>
     </row>
     <row r="10">
@@ -16069,28 +16069,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1445.535405950678</v>
+        <v>1528.59067738925</v>
       </c>
       <c r="AB10" t="n">
-        <v>1977.84531494299</v>
+        <v>2091.485201465217</v>
       </c>
       <c r="AC10" t="n">
-        <v>1789.082534008164</v>
+        <v>1891.876789255292</v>
       </c>
       <c r="AD10" t="n">
-        <v>1445535.405950678</v>
+        <v>1528590.677389249</v>
       </c>
       <c r="AE10" t="n">
-        <v>1977845.31494299</v>
+        <v>2091485.201465217</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.22557623849458e-06</v>
+        <v>2.317275024872979e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.71158854166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1789082.534008164</v>
+        <v>1891876.789255292</v>
       </c>
     </row>
     <row r="11">
@@ -16175,28 +16175,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1423.17507577157</v>
+        <v>1506.230347210142</v>
       </c>
       <c r="AB11" t="n">
-        <v>1947.250924723788</v>
+        <v>2060.890811246015</v>
       </c>
       <c r="AC11" t="n">
-        <v>1761.408029451987</v>
+        <v>1864.202284699115</v>
       </c>
       <c r="AD11" t="n">
-        <v>1423175.07577157</v>
+        <v>1506230.347210142</v>
       </c>
       <c r="AE11" t="n">
-        <v>1947250.924723788</v>
+        <v>2060890.811246015</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.234286597577914e-06</v>
+        <v>2.333744255368405e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.6220703125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1761408.029451987</v>
+        <v>1864202.284699115</v>
       </c>
     </row>
     <row r="12">
@@ -16281,28 +16281,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1402.682362137828</v>
+        <v>1485.7376335764</v>
       </c>
       <c r="AB12" t="n">
-        <v>1919.211889855383</v>
+        <v>2032.85177637761</v>
       </c>
       <c r="AC12" t="n">
-        <v>1736.04500071839</v>
+        <v>1838.839255965518</v>
       </c>
       <c r="AD12" t="n">
-        <v>1402682.362137828</v>
+        <v>1485737.633576399</v>
       </c>
       <c r="AE12" t="n">
-        <v>1919211.889855383</v>
+        <v>2032851.77637761</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.241082592027548e-06</v>
+        <v>2.346593874765936e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1736045.00071839</v>
+        <v>1838839.255965518</v>
       </c>
     </row>
     <row r="13">
@@ -16387,28 +16387,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1381.89196135743</v>
+        <v>1453.07009197696</v>
       </c>
       <c r="AB13" t="n">
-        <v>1890.765546299893</v>
+        <v>1988.154604771037</v>
       </c>
       <c r="AC13" t="n">
-        <v>1710.313536267142</v>
+        <v>1798.407919684201</v>
       </c>
       <c r="AD13" t="n">
-        <v>1381891.96135743</v>
+        <v>1453070.09197696</v>
       </c>
       <c r="AE13" t="n">
-        <v>1890765.546299893</v>
+        <v>1988154.604771037</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.248548614098977e-06</v>
+        <v>2.36071035804773e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.47884114583333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1710313.536267142</v>
+        <v>1798407.919684201</v>
       </c>
     </row>
     <row r="14">
@@ -16493,28 +16493,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1365.126755177434</v>
+        <v>1436.304885796964</v>
       </c>
       <c r="AB14" t="n">
-        <v>1867.826651575726</v>
+        <v>1965.215710046869</v>
       </c>
       <c r="AC14" t="n">
-        <v>1689.563897460508</v>
+        <v>1777.658280877568</v>
       </c>
       <c r="AD14" t="n">
-        <v>1365126.755177434</v>
+        <v>1436304.885796964</v>
       </c>
       <c r="AE14" t="n">
-        <v>1867826.651575726</v>
+        <v>1965215.710046869</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.252855934524802e-06</v>
+        <v>2.368854483017996e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.43489583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1689563.897460508</v>
+        <v>1777658.280877568</v>
       </c>
     </row>
     <row r="15">
@@ -16599,28 +16599,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1351.016570406157</v>
+        <v>1422.194701025688</v>
       </c>
       <c r="AB15" t="n">
-        <v>1848.520474274248</v>
+        <v>1945.909532745391</v>
       </c>
       <c r="AC15" t="n">
-        <v>1672.100274624293</v>
+        <v>1760.194658041352</v>
       </c>
       <c r="AD15" t="n">
-        <v>1351016.570406157</v>
+        <v>1422194.701025688</v>
       </c>
       <c r="AE15" t="n">
-        <v>1848520.474274248</v>
+        <v>1945909.532745391</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.257067536718941e-06</v>
+        <v>2.376817627433367e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.392578125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1672100.274624293</v>
+        <v>1760194.658041352</v>
       </c>
     </row>
     <row r="16">
@@ -16705,28 +16705,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1334.578651648886</v>
+        <v>1405.756782268416</v>
       </c>
       <c r="AB16" t="n">
-        <v>1826.029388640755</v>
+        <v>1923.418447111898</v>
       </c>
       <c r="AC16" t="n">
-        <v>1651.755706637223</v>
+        <v>1739.850090054283</v>
       </c>
       <c r="AD16" t="n">
-        <v>1334578.651648886</v>
+        <v>1405756.782268416</v>
       </c>
       <c r="AE16" t="n">
-        <v>1826029.388640755</v>
+        <v>1923418.447111898</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.26108770244971e-06</v>
+        <v>2.384418810738948e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.353515625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1651755.706637223</v>
+        <v>1739850.090054283</v>
       </c>
     </row>
     <row r="17">
@@ -16811,28 +16811,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1320.464944313225</v>
+        <v>1391.643074932756</v>
       </c>
       <c r="AB17" t="n">
-        <v>1806.718391611281</v>
+        <v>1904.107450082424</v>
       </c>
       <c r="AC17" t="n">
-        <v>1634.287724061088</v>
+        <v>1722.382107478148</v>
       </c>
       <c r="AD17" t="n">
-        <v>1320464.944313225</v>
+        <v>1391643.074932756</v>
       </c>
       <c r="AE17" t="n">
-        <v>1806718.391611281</v>
+        <v>1904107.450082424</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.264437840558685e-06</v>
+        <v>2.390753130160266e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.32096354166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1634287.724061088</v>
+        <v>1722382.107478148</v>
       </c>
     </row>
     <row r="18">
@@ -16917,28 +16917,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1304.680130097988</v>
+        <v>1375.858260717519</v>
       </c>
       <c r="AB18" t="n">
-        <v>1785.120912425138</v>
+        <v>1882.509970896282</v>
       </c>
       <c r="AC18" t="n">
-        <v>1614.751477976218</v>
+        <v>1702.845861393278</v>
       </c>
       <c r="AD18" t="n">
-        <v>1304680.130097988</v>
+        <v>1375858.260717519</v>
       </c>
       <c r="AE18" t="n">
-        <v>1785120.912425138</v>
+        <v>1882509.970896282</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.26836228805777e-06</v>
+        <v>2.398173332910953e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.28352864583333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1614751.477976218</v>
+        <v>1702845.861393278</v>
       </c>
     </row>
     <row r="19">
@@ -17023,28 +17023,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1291.539067146193</v>
+        <v>1362.717197765724</v>
       </c>
       <c r="AB19" t="n">
-        <v>1767.140730351711</v>
+        <v>1864.529788822854</v>
       </c>
       <c r="AC19" t="n">
-        <v>1598.487299244535</v>
+        <v>1686.581682661594</v>
       </c>
       <c r="AD19" t="n">
-        <v>1291539.067146193</v>
+        <v>1362717.197765724</v>
       </c>
       <c r="AE19" t="n">
-        <v>1767140.730351711</v>
+        <v>1864529.788822854</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.270563807386524e-06</v>
+        <v>2.402335885673533e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.2607421875</v>
       </c>
       <c r="AH19" t="n">
-        <v>1598487.299244535</v>
+        <v>1686581.682661594</v>
       </c>
     </row>
     <row r="20">
@@ -17129,28 +17129,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1277.698685903284</v>
+        <v>1348.876816522815</v>
       </c>
       <c r="AB20" t="n">
-        <v>1748.203710140635</v>
+        <v>1845.592768611779</v>
       </c>
       <c r="AC20" t="n">
-        <v>1581.35760166413</v>
+        <v>1669.45198508119</v>
       </c>
       <c r="AD20" t="n">
-        <v>1277698.685903284</v>
+        <v>1348876.816522815</v>
       </c>
       <c r="AE20" t="n">
-        <v>1748203.710140635</v>
+        <v>1845592.768611779</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.272861044946964e-06</v>
+        <v>2.406679418991008e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1581357.60166413</v>
+        <v>1669451.98508119</v>
       </c>
     </row>
     <row r="21">
@@ -17235,28 +17235,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1266.690734751054</v>
+        <v>1337.868865370584</v>
       </c>
       <c r="AB21" t="n">
-        <v>1733.142145737624</v>
+        <v>1830.531204208767</v>
       </c>
       <c r="AC21" t="n">
-        <v>1567.733491828703</v>
+        <v>1655.827875245763</v>
       </c>
       <c r="AD21" t="n">
-        <v>1266690.734751054</v>
+        <v>1337868.865370584</v>
       </c>
       <c r="AE21" t="n">
-        <v>1733142.145737624</v>
+        <v>1830531.204208767</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.274871127812349e-06</v>
+        <v>2.410480010643799e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1567733.491828703</v>
+        <v>1655827.875245763</v>
       </c>
     </row>
     <row r="22">
@@ -17341,28 +17341,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1264.635778214493</v>
+        <v>1335.813908834024</v>
       </c>
       <c r="AB22" t="n">
-        <v>1730.330463546018</v>
+        <v>1827.719522017161</v>
       </c>
       <c r="AC22" t="n">
-        <v>1565.190152639243</v>
+        <v>1653.284536056303</v>
       </c>
       <c r="AD22" t="n">
-        <v>1264635.778214493</v>
+        <v>1335813.908834024</v>
       </c>
       <c r="AE22" t="n">
-        <v>1730330.463546018</v>
+        <v>1827719.522017161</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.276115464824254e-06</v>
+        <v>2.412832757857432e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.20865885416667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1565190.152639243</v>
+        <v>1653284.536056303</v>
       </c>
     </row>
     <row r="23">
@@ -17447,28 +17447,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1270.025705739185</v>
+        <v>1341.203836358716</v>
       </c>
       <c r="AB23" t="n">
-        <v>1737.705200172121</v>
+        <v>1835.094258643264</v>
       </c>
       <c r="AC23" t="n">
-        <v>1571.861054752259</v>
+        <v>1659.955438169319</v>
       </c>
       <c r="AD23" t="n">
-        <v>1270025.705739185</v>
+        <v>1341203.836358716</v>
       </c>
       <c r="AE23" t="n">
-        <v>1737705.200172121</v>
+        <v>1835094.258643264</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.276019746592569e-06</v>
+        <v>2.412651777302537e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.20865885416667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1571861.054752259</v>
+        <v>1659955.438169319</v>
       </c>
     </row>
   </sheetData>
@@ -17744,28 +17744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>955.7365284452545</v>
+        <v>1024.248399992825</v>
       </c>
       <c r="AB2" t="n">
-        <v>1307.680882338638</v>
+        <v>1401.421847520478</v>
       </c>
       <c r="AC2" t="n">
-        <v>1182.877654269884</v>
+        <v>1267.672113301039</v>
       </c>
       <c r="AD2" t="n">
-        <v>955736.5284452545</v>
+        <v>1024248.399992825</v>
       </c>
       <c r="AE2" t="n">
-        <v>1307680.882338638</v>
+        <v>1401421.847520478</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286526800545042e-06</v>
+        <v>2.949448563577531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.4921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1182877.654269884</v>
+        <v>1267672.113301039</v>
       </c>
     </row>
     <row r="3">
@@ -17850,28 +17850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>743.601512101235</v>
+        <v>812.1132941402548</v>
       </c>
       <c r="AB3" t="n">
-        <v>1017.428394240337</v>
+        <v>1111.169236952628</v>
       </c>
       <c r="AC3" t="n">
-        <v>920.3264562637581</v>
+        <v>1005.120804513687</v>
       </c>
       <c r="AD3" t="n">
-        <v>743601.512101235</v>
+        <v>812113.2941402547</v>
       </c>
       <c r="AE3" t="n">
-        <v>1017428.394240336</v>
+        <v>1111169.236952628</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.44563869850222e-06</v>
+        <v>3.314223210074655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.89713541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>920326.4562637581</v>
+        <v>1005120.804513687</v>
       </c>
     </row>
     <row r="4">
@@ -17956,28 +17956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>722.0092999062024</v>
+        <v>790.5210819452222</v>
       </c>
       <c r="AB4" t="n">
-        <v>987.8849769339208</v>
+        <v>1081.625819646212</v>
       </c>
       <c r="AC4" t="n">
-        <v>893.6026212406201</v>
+        <v>978.3969694905491</v>
       </c>
       <c r="AD4" t="n">
-        <v>722009.2999062024</v>
+        <v>790521.0819452222</v>
       </c>
       <c r="AE4" t="n">
-        <v>987884.9769339209</v>
+        <v>1081625.819646212</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.464997885510688e-06</v>
+        <v>3.358605438482152e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.72623697916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>893602.6212406202</v>
+        <v>978396.9694905491</v>
       </c>
     </row>
   </sheetData>
@@ -18253,28 +18253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2955.529082938827</v>
+        <v>3080.791939417483</v>
       </c>
       <c r="AB2" t="n">
-        <v>4043.885280017898</v>
+        <v>4215.275446459213</v>
       </c>
       <c r="AC2" t="n">
-        <v>3657.942544521475</v>
+        <v>3812.975474025233</v>
       </c>
       <c r="AD2" t="n">
-        <v>2955529.082938827</v>
+        <v>3080791.939417483</v>
       </c>
       <c r="AE2" t="n">
-        <v>4043885.280017898</v>
+        <v>4215275.446459212</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.772988583716026e-07</v>
+        <v>1.523495020189279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.83821614583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3657942.544521475</v>
+        <v>3812975.474025233</v>
       </c>
     </row>
     <row r="3">
@@ -18359,28 +18359,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1787.593964476232</v>
+        <v>1878.585697608895</v>
       </c>
       <c r="AB3" t="n">
-        <v>2445.864925276216</v>
+        <v>2570.363828820279</v>
       </c>
       <c r="AC3" t="n">
-        <v>2212.435009600836</v>
+        <v>2325.051912525962</v>
       </c>
       <c r="AD3" t="n">
-        <v>1787593.964476231</v>
+        <v>1878585.697608895</v>
       </c>
       <c r="AE3" t="n">
-        <v>2445864.925276216</v>
+        <v>2570363.828820279</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.054244540467131e-06</v>
+        <v>2.066304729725416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.36295572916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2212435.009600836</v>
+        <v>2325051.912525962</v>
       </c>
     </row>
     <row r="4">
@@ -18465,28 +18465,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1538.000436422542</v>
+        <v>1617.68221974312</v>
       </c>
       <c r="AB4" t="n">
-        <v>2104.360048903838</v>
+        <v>2213.384180155235</v>
       </c>
       <c r="AC4" t="n">
-        <v>1903.522879324333</v>
+        <v>2002.141900505426</v>
       </c>
       <c r="AD4" t="n">
-        <v>1538000.436422542</v>
+        <v>1617682.21974312</v>
       </c>
       <c r="AE4" t="n">
-        <v>2104360.048903838</v>
+        <v>2213384.180155235</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.155648654752198e-06</v>
+        <v>2.265055392325963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.01529947916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1903522.879324334</v>
+        <v>2002141.900505426</v>
       </c>
     </row>
     <row r="5">
@@ -18571,28 +18571,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1419.830948494973</v>
+        <v>1499.427390960979</v>
       </c>
       <c r="AB5" t="n">
-        <v>1942.675342251465</v>
+        <v>2051.582706380664</v>
       </c>
       <c r="AC5" t="n">
-        <v>1757.269134148952</v>
+        <v>1855.782532298106</v>
       </c>
       <c r="AD5" t="n">
-        <v>1419830.948494973</v>
+        <v>1499427.39096098</v>
       </c>
       <c r="AE5" t="n">
-        <v>1942675.342251465</v>
+        <v>2051582.706380664</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.207495115539755e-06</v>
+        <v>2.366673738954899e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.4130859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1757269.134148952</v>
+        <v>1855782.532298106</v>
       </c>
     </row>
     <row r="6">
@@ -18677,28 +18677,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1354.1922796573</v>
+        <v>1422.564113165793</v>
       </c>
       <c r="AB6" t="n">
-        <v>1852.865619774065</v>
+        <v>1946.414978732796</v>
       </c>
       <c r="AC6" t="n">
-        <v>1676.030725536057</v>
+        <v>1760.651864973117</v>
       </c>
       <c r="AD6" t="n">
-        <v>1354192.2796573</v>
+        <v>1422564.113165793</v>
       </c>
       <c r="AE6" t="n">
-        <v>1852865.619774065</v>
+        <v>1946414.978732796</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.240235011123452e-06</v>
+        <v>2.430843481835743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.05989583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1676030.725536057</v>
+        <v>1760651.864973117</v>
       </c>
     </row>
     <row r="7">
@@ -18783,28 +18783,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1296.465516794881</v>
+        <v>1376.147210606909</v>
       </c>
       <c r="AB7" t="n">
-        <v>1773.881316100665</v>
+        <v>1882.905324882514</v>
       </c>
       <c r="AC7" t="n">
-        <v>1604.584572950081</v>
+        <v>1703.203483349947</v>
       </c>
       <c r="AD7" t="n">
-        <v>1296465.516794881</v>
+        <v>1376147.210606909</v>
       </c>
       <c r="AE7" t="n">
-        <v>1773881.316100665</v>
+        <v>1882905.324882514</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.262028437059105e-06</v>
+        <v>2.47355829548591e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.83365885416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1604584.572950081</v>
+        <v>1703203.483349947</v>
       </c>
     </row>
     <row r="8">
@@ -18889,28 +18889,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1262.497075189442</v>
+        <v>1342.178769001469</v>
       </c>
       <c r="AB8" t="n">
-        <v>1727.404195714224</v>
+        <v>1836.428204496072</v>
       </c>
       <c r="AC8" t="n">
-        <v>1562.543163702273</v>
+        <v>1661.16207410214</v>
       </c>
       <c r="AD8" t="n">
-        <v>1262497.075189442</v>
+        <v>1342178.769001469</v>
       </c>
       <c r="AE8" t="n">
-        <v>1727404.195714224</v>
+        <v>1836428.204496072</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.277054954485057e-06</v>
+        <v>2.503010061975294e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1562543.163702273</v>
+        <v>1661162.07410214</v>
       </c>
     </row>
     <row r="9">
@@ -18995,28 +18995,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1233.212373993709</v>
+        <v>1312.894067805737</v>
       </c>
       <c r="AB9" t="n">
-        <v>1687.335575588387</v>
+        <v>1796.359584370236</v>
       </c>
       <c r="AC9" t="n">
-        <v>1526.298636444585</v>
+        <v>1624.917546844452</v>
       </c>
       <c r="AD9" t="n">
-        <v>1233212.373993709</v>
+        <v>1312894.067805737</v>
       </c>
       <c r="AE9" t="n">
-        <v>1687335.575588387</v>
+        <v>1796359.584370236</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.289096071097906e-06</v>
+        <v>2.52661048412904e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.56510416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1526298.636444585</v>
+        <v>1624917.546844452</v>
       </c>
     </row>
     <row r="10">
@@ -19101,28 +19101,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1206.617588472961</v>
+        <v>1274.904081126883</v>
       </c>
       <c r="AB10" t="n">
-        <v>1650.947416759768</v>
+        <v>1744.380008596302</v>
       </c>
       <c r="AC10" t="n">
-        <v>1493.383312423468</v>
+        <v>1577.898828828589</v>
       </c>
       <c r="AD10" t="n">
-        <v>1206617.588472961</v>
+        <v>1274904.081126883</v>
       </c>
       <c r="AE10" t="n">
-        <v>1650947.416759769</v>
+        <v>1744380.008596302</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.298848380420709e-06</v>
+        <v>2.545724875625461e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.46907552083333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1493383.312423468</v>
+        <v>1577898.828828589</v>
       </c>
     </row>
     <row r="11">
@@ -19207,28 +19207,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1183.591178821897</v>
+        <v>1251.877671475818</v>
       </c>
       <c r="AB11" t="n">
-        <v>1619.441667221683</v>
+        <v>1712.874259058217</v>
       </c>
       <c r="AC11" t="n">
-        <v>1464.884427402701</v>
+        <v>1549.399943807822</v>
       </c>
       <c r="AD11" t="n">
-        <v>1183591.178821897</v>
+        <v>1251877.671475818</v>
       </c>
       <c r="AE11" t="n">
-        <v>1619441.667221684</v>
+        <v>1712874.259058217</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.30680944925565e-06</v>
+        <v>2.561328460520499e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.39420572916667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1464884.427402701</v>
+        <v>1549399.943807822</v>
       </c>
     </row>
     <row r="12">
@@ -19313,28 +19313,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1160.954061733679</v>
+        <v>1229.240554387601</v>
       </c>
       <c r="AB12" t="n">
-        <v>1588.468564942461</v>
+        <v>1681.901156778995</v>
       </c>
       <c r="AC12" t="n">
-        <v>1436.867354533985</v>
+        <v>1521.382870939106</v>
       </c>
       <c r="AD12" t="n">
-        <v>1160954.061733679</v>
+        <v>1229240.554387601</v>
       </c>
       <c r="AE12" t="n">
-        <v>1588468.564942461</v>
+        <v>1681901.156778995</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.313178304323604e-06</v>
+        <v>2.57381132843653e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.333984375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1436867.354533985</v>
+        <v>1521382.870939106</v>
       </c>
     </row>
     <row r="13">
@@ -19419,28 +19419,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1140.381220411273</v>
+        <v>1208.667713065195</v>
       </c>
       <c r="AB13" t="n">
-        <v>1560.319895835442</v>
+        <v>1653.752487671976</v>
       </c>
       <c r="AC13" t="n">
-        <v>1411.405154899635</v>
+        <v>1495.920671304756</v>
       </c>
       <c r="AD13" t="n">
-        <v>1140381.220411273</v>
+        <v>1208667.713065195</v>
       </c>
       <c r="AE13" t="n">
-        <v>1560319.895835442</v>
+        <v>1653752.487671976</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.317755918903695e-06</v>
+        <v>2.582783389751176e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1411405.154899635</v>
+        <v>1495920.671304756</v>
       </c>
     </row>
     <row r="14">
@@ -19525,28 +19525,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1122.511684207711</v>
+        <v>1190.798176861633</v>
       </c>
       <c r="AB14" t="n">
-        <v>1535.87000805343</v>
+        <v>1629.302599889964</v>
       </c>
       <c r="AC14" t="n">
-        <v>1389.288730091905</v>
+        <v>1473.804246497026</v>
       </c>
       <c r="AD14" t="n">
-        <v>1122511.684207711</v>
+        <v>1190798.176861633</v>
       </c>
       <c r="AE14" t="n">
-        <v>1535870.00805343</v>
+        <v>1629302.599889964</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.32223402012335e-06</v>
+        <v>2.591560406254635e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.24934895833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1389288.730091905</v>
+        <v>1473804.246497026</v>
       </c>
     </row>
     <row r="15">
@@ -19631,28 +19631,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1117.995490684135</v>
+        <v>1186.281983338057</v>
       </c>
       <c r="AB15" t="n">
-        <v>1529.690752834078</v>
+        <v>1623.123344670611</v>
       </c>
       <c r="AC15" t="n">
-        <v>1383.699214318048</v>
+        <v>1468.214730723169</v>
       </c>
       <c r="AD15" t="n">
-        <v>1117995.490684135</v>
+        <v>1186281.983338057</v>
       </c>
       <c r="AE15" t="n">
-        <v>1529690.752834077</v>
+        <v>1623123.344670611</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.323229153727717e-06</v>
+        <v>2.593510854366515e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.2412109375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1383699.214318048</v>
+        <v>1468214.730723169</v>
       </c>
     </row>
   </sheetData>
@@ -19928,28 +19928,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3566.530288777187</v>
+        <v>3706.19547511467</v>
       </c>
       <c r="AB2" t="n">
-        <v>4879.884085316769</v>
+        <v>5070.980154856884</v>
       </c>
       <c r="AC2" t="n">
-        <v>4414.154797174281</v>
+        <v>4587.012926042498</v>
       </c>
       <c r="AD2" t="n">
-        <v>3566530.288777187</v>
+        <v>3706195.47511467</v>
       </c>
       <c r="AE2" t="n">
-        <v>4879884.08531677</v>
+        <v>5070980.154856884</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.035835764990875e-07</v>
+        <v>1.352782310443145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.55533854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4414154.797174281</v>
+        <v>4587012.926042498</v>
       </c>
     </row>
     <row r="3">
@@ -20034,28 +20034,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2011.065480685955</v>
+        <v>2115.707694370853</v>
       </c>
       <c r="AB3" t="n">
-        <v>2751.62851262185</v>
+        <v>2894.80460587418</v>
       </c>
       <c r="AC3" t="n">
-        <v>2489.016949312093</v>
+        <v>2618.528517173329</v>
       </c>
       <c r="AD3" t="n">
-        <v>2011065.480685955</v>
+        <v>2115707.694370853</v>
       </c>
       <c r="AE3" t="n">
-        <v>2751628.51262185</v>
+        <v>2894804.60587418</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.955083586551667e-07</v>
+        <v>1.914066988584328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.94075520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2489016.949312093</v>
+        <v>2618528.517173328</v>
       </c>
     </row>
     <row r="4">
@@ -20140,28 +20140,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1706.146848083539</v>
+        <v>1787.582737599551</v>
       </c>
       <c r="AB4" t="n">
-        <v>2334.425387434554</v>
+        <v>2445.849564168246</v>
       </c>
       <c r="AC4" t="n">
-        <v>2111.631104844409</v>
+        <v>2212.421114535452</v>
       </c>
       <c r="AD4" t="n">
-        <v>1706146.848083539</v>
+        <v>1787582.737599551</v>
       </c>
       <c r="AE4" t="n">
-        <v>2334425.387434554</v>
+        <v>2445849.564168246</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.103736985306218e-06</v>
+        <v>2.122158502524446e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.37825520833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2111631.104844409</v>
+        <v>2212421.114535451</v>
       </c>
     </row>
     <row r="5">
@@ -20246,28 +20246,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1563.97843340529</v>
+        <v>1645.499574267322</v>
       </c>
       <c r="AB5" t="n">
-        <v>2139.904290443976</v>
+        <v>2251.445111830317</v>
       </c>
       <c r="AC5" t="n">
-        <v>1935.674828338537</v>
+        <v>2036.570350280292</v>
       </c>
       <c r="AD5" t="n">
-        <v>1563978.43340529</v>
+        <v>1645499.574267322</v>
       </c>
       <c r="AE5" t="n">
-        <v>2139904.290443976</v>
+        <v>2251445.111830317</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.160971403183846e-06</v>
+        <v>2.232203294130617e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.67024739583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1935674.828338537</v>
+        <v>2036570.350280292</v>
       </c>
     </row>
     <row r="6">
@@ -20352,28 +20352,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1489.10114797988</v>
+        <v>1570.45169664132</v>
       </c>
       <c r="AB6" t="n">
-        <v>2037.453885172235</v>
+        <v>2148.76129478373</v>
       </c>
       <c r="AC6" t="n">
-        <v>1843.002145955885</v>
+        <v>1943.686532614989</v>
       </c>
       <c r="AD6" t="n">
-        <v>1489101.14797988</v>
+        <v>1570451.69664132</v>
       </c>
       <c r="AE6" t="n">
-        <v>2037453.885172235</v>
+        <v>2148761.29478373</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.195780069593238e-06</v>
+        <v>2.299130024289735e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.271484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1843002.145955885</v>
+        <v>1943686.532614989</v>
       </c>
     </row>
     <row r="7">
@@ -20458,28 +20458,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1423.6151610462</v>
+        <v>1505.050961053661</v>
       </c>
       <c r="AB7" t="n">
-        <v>1947.853068811729</v>
+        <v>2059.277123075873</v>
       </c>
       <c r="AC7" t="n">
-        <v>1761.952705753289</v>
+        <v>1862.742604663106</v>
       </c>
       <c r="AD7" t="n">
-        <v>1423615.1610462</v>
+        <v>1505050.961053661</v>
       </c>
       <c r="AE7" t="n">
-        <v>1947853.068811729</v>
+        <v>2059277.123075873</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.220838409277311e-06</v>
+        <v>2.347309771211006e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.99967447916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1761952.705753289</v>
+        <v>1862742.604663106</v>
       </c>
     </row>
     <row r="8">
@@ -20564,28 +20564,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1386.052272522674</v>
+        <v>1467.488072530134</v>
       </c>
       <c r="AB8" t="n">
-        <v>1896.457867576155</v>
+        <v>2007.881921840298</v>
       </c>
       <c r="AC8" t="n">
-        <v>1715.46259039002</v>
+        <v>1816.252489299836</v>
       </c>
       <c r="AD8" t="n">
-        <v>1386052.272522673</v>
+        <v>1467488.072530134</v>
       </c>
       <c r="AE8" t="n">
-        <v>1896457.867576154</v>
+        <v>2007881.921840298</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.237608971244861e-06</v>
+        <v>2.379554582380105e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.822265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1715462.59039002</v>
+        <v>1816252.489299836</v>
       </c>
     </row>
     <row r="9">
@@ -20670,28 +20670,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1355.792774980256</v>
+        <v>1437.228574987717</v>
       </c>
       <c r="AB9" t="n">
-        <v>1855.055488083804</v>
+        <v>1966.479542347949</v>
       </c>
       <c r="AC9" t="n">
-        <v>1678.011595887815</v>
+        <v>1778.801494797631</v>
       </c>
       <c r="AD9" t="n">
-        <v>1355792.774980256</v>
+        <v>1437228.574987717</v>
       </c>
       <c r="AE9" t="n">
-        <v>1855055.488083804</v>
+        <v>1966479.542347949</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.250284395987777e-06</v>
+        <v>2.403925660589309e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.69368489583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1678011.595887815</v>
+        <v>1778801.494797631</v>
       </c>
     </row>
     <row r="10">
@@ -20776,28 +20776,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1329.106684630248</v>
+        <v>1410.542484637708</v>
       </c>
       <c r="AB10" t="n">
-        <v>1818.542401959706</v>
+        <v>1929.966456223851</v>
       </c>
       <c r="AC10" t="n">
-        <v>1644.983267456963</v>
+        <v>1745.773166366779</v>
       </c>
       <c r="AD10" t="n">
-        <v>1329106.684630248</v>
+        <v>1410542.484637708</v>
       </c>
       <c r="AE10" t="n">
-        <v>1818542.401959707</v>
+        <v>1929966.456223851</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.26042473578211e-06</v>
+        <v>2.423422523156671e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.59114583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1644983.267456963</v>
+        <v>1745773.166366779</v>
       </c>
     </row>
     <row r="11">
@@ -20882,28 +20882,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1305.45435286297</v>
+        <v>1375.414957313569</v>
       </c>
       <c r="AB11" t="n">
-        <v>1786.180238168484</v>
+        <v>1881.903423621832</v>
       </c>
       <c r="AC11" t="n">
-        <v>1615.709703157392</v>
+        <v>1702.297202139407</v>
       </c>
       <c r="AD11" t="n">
-        <v>1305454.35286297</v>
+        <v>1375414.957313569</v>
       </c>
       <c r="AE11" t="n">
-        <v>1786180.238168484</v>
+        <v>1881903.423621831</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.269005023300392e-06</v>
+        <v>2.439919868405978e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.5048828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1615709.703157392</v>
+        <v>1702297.202139407</v>
       </c>
     </row>
     <row r="12">
@@ -20988,28 +20988,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1284.91653562105</v>
+        <v>1354.706547871057</v>
       </c>
       <c r="AB12" t="n">
-        <v>1758.079490553539</v>
+        <v>1853.569264232039</v>
       </c>
       <c r="AC12" t="n">
-        <v>1590.290851455171</v>
+        <v>1676.667215154534</v>
       </c>
       <c r="AD12" t="n">
-        <v>1284916.53562105</v>
+        <v>1354706.547871057</v>
       </c>
       <c r="AE12" t="n">
-        <v>1758079.490553539</v>
+        <v>1853569.264232039</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.276025258542622e-06</v>
+        <v>2.453417696337228e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.4365234375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1590290.851455171</v>
+        <v>1676667.215154534</v>
       </c>
     </row>
     <row r="13">
@@ -21094,28 +21094,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1264.587716633619</v>
+        <v>1334.377728883626</v>
       </c>
       <c r="AB13" t="n">
-        <v>1730.264703570739</v>
+        <v>1825.754477249239</v>
       </c>
       <c r="AC13" t="n">
-        <v>1565.13066870371</v>
+        <v>1651.507032403074</v>
       </c>
       <c r="AD13" t="n">
-        <v>1264587.716633619</v>
+        <v>1334377.728883626</v>
       </c>
       <c r="AE13" t="n">
-        <v>1730264.703570739</v>
+        <v>1825754.47724924</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.281972957845067e-06</v>
+        <v>2.464853356112316e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.37955729166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1565130.66870371</v>
+        <v>1651507.032403074</v>
       </c>
     </row>
     <row r="14">
@@ -21200,28 +21200,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1248.103847265375</v>
+        <v>1317.893859515382</v>
       </c>
       <c r="AB14" t="n">
-        <v>1707.710746284114</v>
+        <v>1803.200519962615</v>
       </c>
       <c r="AC14" t="n">
-        <v>1544.729229445843</v>
+        <v>1631.105593145207</v>
       </c>
       <c r="AD14" t="n">
-        <v>1248103.847265375</v>
+        <v>1317893.859515382</v>
       </c>
       <c r="AE14" t="n">
-        <v>1707710.746284114</v>
+        <v>1803200.519962615</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.286263101604208e-06</v>
+        <v>2.473102028736969e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.33723958333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1544729.229445843</v>
+        <v>1631105.593145207</v>
       </c>
     </row>
     <row r="15">
@@ -21306,28 +21306,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1230.241408274236</v>
+        <v>1300.031420524242</v>
       </c>
       <c r="AB15" t="n">
-        <v>1683.270569221246</v>
+        <v>1778.760342899747</v>
       </c>
       <c r="AC15" t="n">
-        <v>1522.621588579851</v>
+        <v>1608.997952279215</v>
       </c>
       <c r="AD15" t="n">
-        <v>1230241.408274236</v>
+        <v>1300031.420524242</v>
       </c>
       <c r="AE15" t="n">
-        <v>1683270.569221246</v>
+        <v>1778760.342899747</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.291040761699615e-06</v>
+        <v>2.482288050523515e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.29329427083333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1522621.588579851</v>
+        <v>1608997.952279215</v>
       </c>
     </row>
     <row r="16">
@@ -21412,28 +21412,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1213.941712867544</v>
+        <v>1283.731725117551</v>
       </c>
       <c r="AB16" t="n">
-        <v>1660.968606874001</v>
+        <v>1756.458380552501</v>
       </c>
       <c r="AC16" t="n">
-        <v>1502.448094218026</v>
+        <v>1588.82445791739</v>
       </c>
       <c r="AD16" t="n">
-        <v>1213941.712867544</v>
+        <v>1283731.725117551</v>
       </c>
       <c r="AE16" t="n">
-        <v>1660968.606874001</v>
+        <v>1756458.380552501</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.29425836951897e-06</v>
+        <v>2.488474554992005e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.26236979166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1502448.094218026</v>
+        <v>1588824.45791739</v>
       </c>
     </row>
     <row r="17">
@@ -21518,28 +21518,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1197.106217064915</v>
+        <v>1266.896229314921</v>
       </c>
       <c r="AB17" t="n">
-        <v>1637.933538787187</v>
+        <v>1733.423312465688</v>
       </c>
       <c r="AC17" t="n">
-        <v>1481.611460699497</v>
+        <v>1567.987824398861</v>
       </c>
       <c r="AD17" t="n">
-        <v>1197106.217064915</v>
+        <v>1266896.229314921</v>
       </c>
       <c r="AE17" t="n">
-        <v>1637933.538787188</v>
+        <v>1733423.312465688</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.296598447933047e-06</v>
+        <v>2.492973830969089e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1481611.460699497</v>
+        <v>1567987.824398861</v>
       </c>
     </row>
     <row r="18">
@@ -21624,28 +21624,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1191.233823288469</v>
+        <v>1261.023835538476</v>
       </c>
       <c r="AB18" t="n">
-        <v>1629.898670550525</v>
+        <v>1725.388444229026</v>
       </c>
       <c r="AC18" t="n">
-        <v>1474.343429010333</v>
+        <v>1560.719792709697</v>
       </c>
       <c r="AD18" t="n">
-        <v>1191233.823288469</v>
+        <v>1261023.835538476</v>
       </c>
       <c r="AE18" t="n">
-        <v>1629898.670550525</v>
+        <v>1725388.444229026</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.298451010010858e-06</v>
+        <v>2.49653575778428e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.2216796875</v>
       </c>
       <c r="AH18" t="n">
-        <v>1474343.429010333</v>
+        <v>1560719.792709698</v>
       </c>
     </row>
     <row r="19">
@@ -21730,28 +21730,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1195.689271824865</v>
+        <v>1265.479284074871</v>
       </c>
       <c r="AB19" t="n">
-        <v>1635.994811798539</v>
+        <v>1731.484585477039</v>
       </c>
       <c r="AC19" t="n">
-        <v>1479.857763093625</v>
+        <v>1566.234126792989</v>
       </c>
       <c r="AD19" t="n">
-        <v>1195689.271824865</v>
+        <v>1265479.284074871</v>
       </c>
       <c r="AE19" t="n">
-        <v>1635994.811798539</v>
+        <v>1731484.585477039</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.298548513278111e-06</v>
+        <v>2.496723227616658e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.2216796875</v>
       </c>
       <c r="AH19" t="n">
-        <v>1479857.763093625</v>
+        <v>1566234.126792989</v>
       </c>
     </row>
   </sheetData>
@@ -22027,28 +22027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5162.58414345074</v>
+        <v>5331.798778747341</v>
       </c>
       <c r="AB2" t="n">
-        <v>7063.675382207824</v>
+        <v>7295.202311443489</v>
       </c>
       <c r="AC2" t="n">
-        <v>6389.528117660307</v>
+        <v>6598.958441719798</v>
       </c>
       <c r="AD2" t="n">
-        <v>5162584.14345074</v>
+        <v>5331798.778747342</v>
       </c>
       <c r="AE2" t="n">
-        <v>7063675.382207824</v>
+        <v>7295202.311443489</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.737092210335734e-07</v>
+        <v>1.068776764992581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.70084635416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6389528.117660306</v>
+        <v>6598958.441719797</v>
       </c>
     </row>
     <row r="3">
@@ -22133,28 +22133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2521.724792269591</v>
+        <v>2630.389899023324</v>
       </c>
       <c r="AB3" t="n">
-        <v>3450.335111429609</v>
+        <v>3599.015504456245</v>
       </c>
       <c r="AC3" t="n">
-        <v>3121.03997097038</v>
+        <v>3255.530515960791</v>
       </c>
       <c r="AD3" t="n">
-        <v>2521724.792269591</v>
+        <v>2630389.899023324</v>
       </c>
       <c r="AE3" t="n">
-        <v>3450335.111429609</v>
+        <v>3599015.504456245</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.906798011584216e-07</v>
+        <v>1.659268914680083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.197265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3121039.97097038</v>
+        <v>3255530.515960791</v>
       </c>
     </row>
     <row r="4">
@@ -22239,28 +22239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2062.34338877775</v>
+        <v>2146.993466361888</v>
       </c>
       <c r="AB4" t="n">
-        <v>2821.789208694689</v>
+        <v>2937.611179343162</v>
       </c>
       <c r="AC4" t="n">
-        <v>2552.481607022896</v>
+        <v>2657.249691349835</v>
       </c>
       <c r="AD4" t="n">
-        <v>2062343.38877775</v>
+        <v>2146993.466361888</v>
       </c>
       <c r="AE4" t="n">
-        <v>2821789.208694689</v>
+        <v>2937611.179343162</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.012461253261021e-06</v>
+        <v>1.886138523259545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.12858072916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2552481.607022896</v>
+        <v>2657249.691349835</v>
       </c>
     </row>
     <row r="5">
@@ -22345,28 +22345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1868.91455226494</v>
+        <v>1953.479288994507</v>
       </c>
       <c r="AB5" t="n">
-        <v>2557.131341099859</v>
+        <v>2672.836544626134</v>
       </c>
       <c r="AC5" t="n">
-        <v>2313.082314861666</v>
+        <v>2417.744776156667</v>
       </c>
       <c r="AD5" t="n">
-        <v>1868914.55226494</v>
+        <v>1953479.288994506</v>
       </c>
       <c r="AE5" t="n">
-        <v>2557131.341099859</v>
+        <v>2672836.544626134</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.077116475513328e-06</v>
+        <v>2.006586298448177e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.22037760416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2313082.314861666</v>
+        <v>2417744.776156667</v>
       </c>
     </row>
     <row r="6">
@@ -22451,28 +22451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1755.901788616101</v>
+        <v>1840.551776691688</v>
       </c>
       <c r="AB6" t="n">
-        <v>2402.502292104264</v>
+        <v>2518.324140283188</v>
       </c>
       <c r="AC6" t="n">
-        <v>2173.210845278977</v>
+        <v>2277.978818824689</v>
       </c>
       <c r="AD6" t="n">
-        <v>1755901.788616101</v>
+        <v>1840551.776691688</v>
       </c>
       <c r="AE6" t="n">
-        <v>2402502.292104264</v>
+        <v>2518324.140283188</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.11720836005406e-06</v>
+        <v>2.081274438521477e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.7109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2173210.845278977</v>
+        <v>2277978.818824689</v>
       </c>
     </row>
     <row r="7">
@@ -22557,28 +22557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1688.480529350291</v>
+        <v>1772.959925225286</v>
       </c>
       <c r="AB7" t="n">
-        <v>2310.253550760747</v>
+        <v>2425.841987164824</v>
       </c>
       <c r="AC7" t="n">
-        <v>2089.766194337364</v>
+        <v>2194.323032600425</v>
       </c>
       <c r="AD7" t="n">
-        <v>1688480.529350291</v>
+        <v>1772959.925225286</v>
       </c>
       <c r="AE7" t="n">
-        <v>2310253.550760747</v>
+        <v>2425841.987164824</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.144971519536492e-06</v>
+        <v>2.132995098900875e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.37727864583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2089766.194337364</v>
+        <v>2194323.032600425</v>
       </c>
     </row>
     <row r="8">
@@ -22663,28 +22663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1638.884808630438</v>
+        <v>1711.442030775207</v>
       </c>
       <c r="AB8" t="n">
-        <v>2242.394497663069</v>
+        <v>2341.670490000266</v>
       </c>
       <c r="AC8" t="n">
-        <v>2028.383514026548</v>
+        <v>2118.184744989815</v>
       </c>
       <c r="AD8" t="n">
-        <v>1638884.808630438</v>
+        <v>1711442.030775207</v>
       </c>
       <c r="AE8" t="n">
-        <v>2242394.497663069</v>
+        <v>2341670.490000266</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.165864473452084e-06</v>
+        <v>2.171917087389778e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.13802083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2028383.514026548</v>
+        <v>2118184.744989815</v>
       </c>
     </row>
     <row r="9">
@@ -22769,28 +22769,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1592.18887273611</v>
+        <v>1676.753519957125</v>
       </c>
       <c r="AB9" t="n">
-        <v>2178.50305809315</v>
+        <v>2294.208139149877</v>
       </c>
       <c r="AC9" t="n">
-        <v>1970.589783776985</v>
+        <v>2075.252134290758</v>
       </c>
       <c r="AD9" t="n">
-        <v>1592188.87273611</v>
+        <v>1676753.519957125</v>
       </c>
       <c r="AE9" t="n">
-        <v>2178503.05809315</v>
+        <v>2294208.139149877</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.180075446610888e-06</v>
+        <v>2.198391052533131e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.98014322916667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1970589.783776985</v>
+        <v>2075252.134290759</v>
       </c>
     </row>
     <row r="10">
@@ -22875,28 +22875,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1561.735300185508</v>
+        <v>1646.299947406523</v>
       </c>
       <c r="AB10" t="n">
-        <v>2136.835136612615</v>
+        <v>2252.540217669342</v>
       </c>
       <c r="AC10" t="n">
-        <v>1932.898590241257</v>
+        <v>2037.560940755031</v>
       </c>
       <c r="AD10" t="n">
-        <v>1561735.300185508</v>
+        <v>1646299.947406523</v>
       </c>
       <c r="AE10" t="n">
-        <v>2136835.136612615</v>
+        <v>2252540.217669342</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.192686508884264e-06</v>
+        <v>2.221884505044451e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.84342447916667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1932898.590241257</v>
+        <v>2037560.940755031</v>
       </c>
     </row>
     <row r="11">
@@ -22981,28 +22981,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1536.989595185976</v>
+        <v>1621.554242406992</v>
       </c>
       <c r="AB11" t="n">
-        <v>2102.976971328801</v>
+        <v>2218.682052385528</v>
       </c>
       <c r="AC11" t="n">
-        <v>1902.271800731897</v>
+        <v>2006.93415124567</v>
       </c>
       <c r="AD11" t="n">
-        <v>1536989.595185976</v>
+        <v>1621554.242406992</v>
       </c>
       <c r="AE11" t="n">
-        <v>2102976.971328801</v>
+        <v>2218682.052385528</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.202097749386784e-06</v>
+        <v>2.239416932291705e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.74251302083333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1902271.800731896</v>
+        <v>2006934.15124567</v>
       </c>
     </row>
     <row r="12">
@@ -23087,28 +23087,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1516.072064324376</v>
+        <v>1600.636711545392</v>
       </c>
       <c r="AB12" t="n">
-        <v>2074.356682787627</v>
+        <v>2190.061763844354</v>
       </c>
       <c r="AC12" t="n">
-        <v>1876.382992360265</v>
+        <v>1981.045342874039</v>
       </c>
       <c r="AD12" t="n">
-        <v>1516072.064324376</v>
+        <v>1600636.711545391</v>
       </c>
       <c r="AE12" t="n">
-        <v>2074356.682787627</v>
+        <v>2190061.763844354</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.209532629383774e-06</v>
+        <v>2.253267549817035e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.66438802083333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1876382.992360265</v>
+        <v>1981045.342874039</v>
       </c>
     </row>
     <row r="13">
@@ -23193,28 +23193,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1496.023975376845</v>
+        <v>1580.58862259786</v>
       </c>
       <c r="AB13" t="n">
-        <v>2046.926003030352</v>
+        <v>2162.631084087079</v>
       </c>
       <c r="AC13" t="n">
-        <v>1851.570258179823</v>
+        <v>1956.232608693598</v>
       </c>
       <c r="AD13" t="n">
-        <v>1496023.975376845</v>
+        <v>1580588.62259786</v>
       </c>
       <c r="AE13" t="n">
-        <v>2046926.003030352</v>
+        <v>2162631.084087079</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.216779284570714e-06</v>
+        <v>2.26676751879742e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.58951822916667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1851570.258179823</v>
+        <v>1956232.608693598</v>
       </c>
     </row>
     <row r="14">
@@ -23299,28 +23299,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1477.347999145335</v>
+        <v>1549.990472636124</v>
       </c>
       <c r="AB14" t="n">
-        <v>2021.372708424479</v>
+        <v>2120.765345414326</v>
       </c>
       <c r="AC14" t="n">
-        <v>1828.45573414686</v>
+        <v>1918.362477360839</v>
       </c>
       <c r="AD14" t="n">
-        <v>1477347.999145335</v>
+        <v>1549990.472636124</v>
       </c>
       <c r="AE14" t="n">
-        <v>2021372.708424479</v>
+        <v>2120765.345414326</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.222990703302376e-06</v>
+        <v>2.278338920780608e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.5244140625</v>
       </c>
       <c r="AH14" t="n">
-        <v>1828455.73414686</v>
+        <v>1918362.477360839</v>
       </c>
     </row>
     <row r="15">
@@ -23405,28 +23405,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1462.486735113079</v>
+        <v>1534.958616403276</v>
       </c>
       <c r="AB15" t="n">
-        <v>2001.03887134285</v>
+        <v>2100.19809655785</v>
       </c>
       <c r="AC15" t="n">
-        <v>1810.062529937583</v>
+        <v>1899.75813786891</v>
       </c>
       <c r="AD15" t="n">
-        <v>1462486.735113079</v>
+        <v>1534958.616403276</v>
       </c>
       <c r="AE15" t="n">
-        <v>2001038.87134285</v>
+        <v>2100198.09655785</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.227696323553636e-06</v>
+        <v>2.287105134404235e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.47721354166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1810062.529937583</v>
+        <v>1899758.13786891</v>
       </c>
     </row>
     <row r="16">
@@ -23511,28 +23511,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1448.185167476531</v>
+        <v>1520.657048766727</v>
       </c>
       <c r="AB16" t="n">
-        <v>1981.470835561889</v>
+        <v>2080.630060776889</v>
       </c>
       <c r="AC16" t="n">
-        <v>1792.362040027646</v>
+        <v>1882.057647958973</v>
       </c>
       <c r="AD16" t="n">
-        <v>1448185.16747653</v>
+        <v>1520657.048766727</v>
       </c>
       <c r="AE16" t="n">
-        <v>1981470.835561889</v>
+        <v>2080630.060776889</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.230990257729518e-06</v>
+        <v>2.293241483940774e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.44303385416667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1792362.040027646</v>
+        <v>1882057.647958973</v>
       </c>
     </row>
     <row r="17">
@@ -23617,28 +23617,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1432.864312288737</v>
+        <v>1505.336193578934</v>
       </c>
       <c r="AB17" t="n">
-        <v>1960.508165585523</v>
+        <v>2059.667390800523</v>
       </c>
       <c r="AC17" t="n">
-        <v>1773.400017852532</v>
+        <v>1863.095625783859</v>
       </c>
       <c r="AD17" t="n">
-        <v>1432864.312288737</v>
+        <v>1505336.193578934</v>
       </c>
       <c r="AE17" t="n">
-        <v>1960508.165585523</v>
+        <v>2059667.390800523</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.235789990385803e-06</v>
+        <v>2.302183021836873e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.39420572916667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1773400.017852532</v>
+        <v>1863095.625783859</v>
       </c>
     </row>
     <row r="18">
@@ -23723,28 +23723,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1420.869950656216</v>
+        <v>1493.341831946413</v>
       </c>
       <c r="AB18" t="n">
-        <v>1944.096950846018</v>
+        <v>2043.256176061018</v>
       </c>
       <c r="AC18" t="n">
-        <v>1758.555066414481</v>
+        <v>1848.250674345808</v>
       </c>
       <c r="AD18" t="n">
-        <v>1420869.950656216</v>
+        <v>1493341.831946413</v>
       </c>
       <c r="AE18" t="n">
-        <v>1944096.950846018</v>
+        <v>2043256.176061018</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.238519250131533e-06</v>
+        <v>2.307267425738577e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.3681640625</v>
       </c>
       <c r="AH18" t="n">
-        <v>1758555.066414481</v>
+        <v>1848250.674345808</v>
       </c>
     </row>
     <row r="19">
@@ -23829,28 +23829,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1408.124975622694</v>
+        <v>1480.596856912891</v>
       </c>
       <c r="AB19" t="n">
-        <v>1926.658713736538</v>
+        <v>2025.817938951538</v>
       </c>
       <c r="AC19" t="n">
-        <v>1742.78111018001</v>
+        <v>1832.476718111337</v>
       </c>
       <c r="AD19" t="n">
-        <v>1408124.975622694</v>
+        <v>1480596.856912891</v>
       </c>
       <c r="AE19" t="n">
-        <v>1926658.713736538</v>
+        <v>2025817.938951538</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.24209552152249e-06</v>
+        <v>2.313929748092533e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.33235677083333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1742781.11018001</v>
+        <v>1832476.718111337</v>
       </c>
     </row>
     <row r="20">
@@ -23935,28 +23935,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1396.573948565115</v>
+        <v>1469.045829855311</v>
       </c>
       <c r="AB20" t="n">
-        <v>1910.854088921009</v>
+        <v>2010.013314136009</v>
       </c>
       <c r="AC20" t="n">
-        <v>1728.484856574945</v>
+        <v>1818.180464506272</v>
       </c>
       <c r="AD20" t="n">
-        <v>1396573.948565115</v>
+        <v>1469045.829855311</v>
       </c>
       <c r="AE20" t="n">
-        <v>1910854.088921009</v>
+        <v>2010013.314136009</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.244542444053145e-06</v>
+        <v>2.318488179176818e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.30794270833333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1728484.856574945</v>
+        <v>1818180.464506272</v>
       </c>
     </row>
     <row r="21">
@@ -24041,28 +24041,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1383.54135948002</v>
+        <v>1456.013240770216</v>
       </c>
       <c r="AB21" t="n">
-        <v>1893.02232557753</v>
+        <v>1992.181550792531</v>
       </c>
       <c r="AC21" t="n">
-        <v>1712.354931697931</v>
+        <v>1802.050539629258</v>
       </c>
       <c r="AD21" t="n">
-        <v>1383541.35948002</v>
+        <v>1456013.240770216</v>
       </c>
       <c r="AE21" t="n">
-        <v>1893022.32557753</v>
+        <v>1992181.55079253</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.246895254178775e-06</v>
+        <v>2.322871285988632e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.28515625</v>
       </c>
       <c r="AH21" t="n">
-        <v>1712354.931697931</v>
+        <v>1802050.539629258</v>
       </c>
     </row>
     <row r="22">
@@ -24147,28 +24147,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1370.300750574099</v>
+        <v>1442.772631864296</v>
       </c>
       <c r="AB22" t="n">
-        <v>1874.905940338011</v>
+        <v>1974.065165553011</v>
       </c>
       <c r="AC22" t="n">
-        <v>1695.967548839165</v>
+        <v>1785.663156770492</v>
       </c>
       <c r="AD22" t="n">
-        <v>1370300.750574099</v>
+        <v>1442772.631864296</v>
       </c>
       <c r="AE22" t="n">
-        <v>1874905.940338011</v>
+        <v>1974065.165553011</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.249718626329531e-06</v>
+        <v>2.328131014162808e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.25748697916667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1695967.548839165</v>
+        <v>1785663.156770492</v>
       </c>
     </row>
     <row r="23">
@@ -24253,28 +24253,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1362.394413998446</v>
+        <v>1434.866295288643</v>
       </c>
       <c r="AB23" t="n">
-        <v>1864.08814183225</v>
+        <v>1963.24736704725</v>
       </c>
       <c r="AC23" t="n">
-        <v>1686.182185839918</v>
+        <v>1775.877793771245</v>
       </c>
       <c r="AD23" t="n">
-        <v>1362394.413998446</v>
+        <v>1434866.295288643</v>
       </c>
       <c r="AE23" t="n">
-        <v>1864088.14183225</v>
+        <v>1963247.36704725</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.250659750379783e-06</v>
+        <v>2.329884256887533e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.24772135416667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1686182.185839918</v>
+        <v>1775877.793771246</v>
       </c>
     </row>
     <row r="24">
@@ -24359,28 +24359,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1349.246452743044</v>
+        <v>1421.718334033241</v>
       </c>
       <c r="AB24" t="n">
-        <v>1846.098521195496</v>
+        <v>1945.257746410496</v>
       </c>
       <c r="AC24" t="n">
-        <v>1669.909469348145</v>
+        <v>1759.605077279472</v>
       </c>
       <c r="AD24" t="n">
-        <v>1349246.452743044</v>
+        <v>1421718.334033241</v>
       </c>
       <c r="AE24" t="n">
-        <v>1846098.521195496</v>
+        <v>1945257.746410496</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.253671347340589e-06</v>
+        <v>2.335494633606655e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.21842447916667</v>
       </c>
       <c r="AH24" t="n">
-        <v>1669909.469348145</v>
+        <v>1759605.077279472</v>
       </c>
     </row>
     <row r="25">
@@ -24465,28 +24465,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1340.043903940829</v>
+        <v>1412.515785231025</v>
       </c>
       <c r="AB25" t="n">
-        <v>1833.507187936505</v>
+        <v>1932.666413151505</v>
       </c>
       <c r="AC25" t="n">
-        <v>1658.519835263345</v>
+        <v>1748.215443194672</v>
       </c>
       <c r="AD25" t="n">
-        <v>1340043.903940829</v>
+        <v>1412515.785231025</v>
       </c>
       <c r="AE25" t="n">
-        <v>1833507.187936505</v>
+        <v>1932666.413151505</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.254612471390841e-06</v>
+        <v>2.33724787633138e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.20865885416667</v>
       </c>
       <c r="AH25" t="n">
-        <v>1658519.835263345</v>
+        <v>1748215.443194672</v>
       </c>
     </row>
     <row r="26">
@@ -24571,28 +24571,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1339.155626716699</v>
+        <v>1411.627508006896</v>
       </c>
       <c r="AB26" t="n">
-        <v>1832.291807850425</v>
+        <v>1931.451033065425</v>
       </c>
       <c r="AC26" t="n">
-        <v>1657.420449346884</v>
+        <v>1747.116057278211</v>
       </c>
       <c r="AD26" t="n">
-        <v>1339155.626716699</v>
+        <v>1411627.508006896</v>
       </c>
       <c r="AE26" t="n">
-        <v>1832291.807850425</v>
+        <v>1931451.033065425</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.25404779696069e-06</v>
+        <v>2.336195930696545e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.21516927083333</v>
       </c>
       <c r="AH26" t="n">
-        <v>1657420.449346884</v>
+        <v>1747116.057278211</v>
       </c>
     </row>
     <row r="27">
@@ -24677,28 +24677,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1342.015306300765</v>
+        <v>1414.487187590962</v>
       </c>
       <c r="AB27" t="n">
-        <v>1836.204547617504</v>
+        <v>1935.363772832504</v>
       </c>
       <c r="AC27" t="n">
-        <v>1660.959762722157</v>
+        <v>1750.655370653484</v>
       </c>
       <c r="AD27" t="n">
-        <v>1342015.306300765</v>
+        <v>1414487.187590962</v>
       </c>
       <c r="AE27" t="n">
-        <v>1836204.547617503</v>
+        <v>1935363.772832504</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.255271258226017e-06</v>
+        <v>2.338475146238688e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.20377604166667</v>
       </c>
       <c r="AH27" t="n">
-        <v>1660959.762722157</v>
+        <v>1750655.370653484</v>
       </c>
     </row>
   </sheetData>
@@ -24974,28 +24974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2432.45604534947</v>
+        <v>2543.490288039968</v>
       </c>
       <c r="AB2" t="n">
-        <v>3328.193673634327</v>
+        <v>3480.115622968546</v>
       </c>
       <c r="AC2" t="n">
-        <v>3010.5555405717</v>
+        <v>3147.97827228525</v>
       </c>
       <c r="AD2" t="n">
-        <v>2432456.04534947</v>
+        <v>2543490.288039968</v>
       </c>
       <c r="AE2" t="n">
-        <v>3328193.673634327</v>
+        <v>3480115.622968546</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.603386608496726e-07</v>
+        <v>1.724546570046748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.26106770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3010555.5405717</v>
+        <v>3147978.27228525</v>
       </c>
     </row>
     <row r="3">
@@ -25080,28 +25080,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1558.166028708786</v>
+        <v>1647.044555767087</v>
       </c>
       <c r="AB3" t="n">
-        <v>2131.951501913021</v>
+        <v>2253.559023678068</v>
       </c>
       <c r="AC3" t="n">
-        <v>1928.481042783167</v>
+        <v>2038.482513348187</v>
       </c>
       <c r="AD3" t="n">
-        <v>1558166.028708786</v>
+        <v>1647044.555767087</v>
       </c>
       <c r="AE3" t="n">
-        <v>2131951.501913021</v>
+        <v>2253559.023678068</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.120069302722752e-06</v>
+        <v>2.24517595468453e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.794921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1928481.042783167</v>
+        <v>2038482.513348187</v>
       </c>
     </row>
     <row r="4">
@@ -25186,28 +25186,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1361.749464958267</v>
+        <v>1439.59284938203</v>
       </c>
       <c r="AB4" t="n">
-        <v>1863.205694102333</v>
+        <v>1969.714446878673</v>
       </c>
       <c r="AC4" t="n">
-        <v>1685.383957682821</v>
+        <v>1781.727664580161</v>
       </c>
       <c r="AD4" t="n">
-        <v>1361749.464958267</v>
+        <v>1439592.84938203</v>
       </c>
       <c r="AE4" t="n">
-        <v>1863205.694102333</v>
+        <v>1969714.446878673</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21149937579293e-06</v>
+        <v>2.4284472943179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.67838541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1685383.957682821</v>
+        <v>1781727.664580161</v>
       </c>
     </row>
     <row r="5">
@@ -25292,28 +25292,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1269.549561801317</v>
+        <v>1336.272552244522</v>
       </c>
       <c r="AB5" t="n">
-        <v>1737.053719030342</v>
+        <v>1828.347058165324</v>
       </c>
       <c r="AC5" t="n">
-        <v>1571.271750056292</v>
+        <v>1653.852181035237</v>
       </c>
       <c r="AD5" t="n">
-        <v>1269549.561801317</v>
+        <v>1336272.552244522</v>
       </c>
       <c r="AE5" t="n">
-        <v>1737053.719030342</v>
+        <v>1828347.058165324</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.260574314790509e-06</v>
+        <v>2.526817879733585e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.14615885416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1571271.750056292</v>
+        <v>1653852.181035237</v>
       </c>
     </row>
     <row r="6">
@@ -25398,28 +25398,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1205.351401802489</v>
+        <v>1283.109445371681</v>
       </c>
       <c r="AB6" t="n">
-        <v>1649.214964297015</v>
+        <v>1755.606949951157</v>
       </c>
       <c r="AC6" t="n">
-        <v>1491.816202792247</v>
+        <v>1588.054286657648</v>
       </c>
       <c r="AD6" t="n">
-        <v>1205351.401802489</v>
+        <v>1283109.445371681</v>
       </c>
       <c r="AE6" t="n">
-        <v>1649214.964297015</v>
+        <v>1755606.949951157</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.288268056299516e-06</v>
+        <v>2.582329911337457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.86295572916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1491816.202792247</v>
+        <v>1588054.286657648</v>
       </c>
     </row>
     <row r="7">
@@ -25504,28 +25504,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1162.777735186195</v>
+        <v>1240.535778755386</v>
       </c>
       <c r="AB7" t="n">
-        <v>1590.963795414988</v>
+        <v>1697.355781069129</v>
       </c>
       <c r="AC7" t="n">
-        <v>1439.124443712292</v>
+        <v>1535.362527577692</v>
       </c>
       <c r="AD7" t="n">
-        <v>1162777.735186195</v>
+        <v>1240535.778755386</v>
       </c>
       <c r="AE7" t="n">
-        <v>1590963.795414988</v>
+        <v>1697355.781069129</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.308631101526727e-06</v>
+        <v>2.623147581634421e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.66276041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1439124.443712292</v>
+        <v>1535362.527577692</v>
       </c>
     </row>
     <row r="8">
@@ -25610,28 +25610,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1128.11638693565</v>
+        <v>1194.924628724876</v>
       </c>
       <c r="AB8" t="n">
-        <v>1543.53860958783</v>
+        <v>1634.948593375461</v>
       </c>
       <c r="AC8" t="n">
-        <v>1396.225451058812</v>
+        <v>1478.91139428847</v>
       </c>
       <c r="AD8" t="n">
-        <v>1128116.38693565</v>
+        <v>1194924.628724876</v>
       </c>
       <c r="AE8" t="n">
-        <v>1543538.60958783</v>
+        <v>1634948.593375461</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.324107015899408e-06</v>
+        <v>2.654169011060114e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.51627604166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1396225.451058812</v>
+        <v>1478911.39428847</v>
       </c>
     </row>
     <row r="9">
@@ -25716,28 +25716,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1099.833374061245</v>
+        <v>1166.471023649878</v>
       </c>
       <c r="AB9" t="n">
-        <v>1504.840543614603</v>
+        <v>1596.017115627388</v>
       </c>
       <c r="AC9" t="n">
-        <v>1361.220674188992</v>
+        <v>1443.695482136</v>
       </c>
       <c r="AD9" t="n">
-        <v>1099833.374061245</v>
+        <v>1166471.023649878</v>
       </c>
       <c r="AE9" t="n">
-        <v>1504840.543614603</v>
+        <v>1596017.115627388</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.333779462382333e-06</v>
+        <v>2.673557404451172e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.42350260416667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1361220.674188992</v>
+        <v>1443695.482135999</v>
       </c>
     </row>
     <row r="10">
@@ -25822,28 +25822,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1072.935371804021</v>
+        <v>1139.573021392655</v>
       </c>
       <c r="AB10" t="n">
-        <v>1468.03751027016</v>
+        <v>1559.214082282944</v>
       </c>
       <c r="AC10" t="n">
-        <v>1327.930070693561</v>
+        <v>1410.404878640568</v>
       </c>
       <c r="AD10" t="n">
-        <v>1072935.371804021</v>
+        <v>1139573.021392655</v>
       </c>
       <c r="AE10" t="n">
-        <v>1468037.51027016</v>
+        <v>1559214.082282944</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.342841017508442e-06</v>
+        <v>2.691721267733321e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.34049479166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1327930.070693561</v>
+        <v>1410404.878640568</v>
       </c>
     </row>
     <row r="11">
@@ -25928,28 +25928,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1048.753972867076</v>
+        <v>1115.39162245571</v>
       </c>
       <c r="AB11" t="n">
-        <v>1434.951453436603</v>
+        <v>1526.128025449387</v>
       </c>
       <c r="AC11" t="n">
-        <v>1298.001700687627</v>
+        <v>1380.476508634634</v>
       </c>
       <c r="AD11" t="n">
-        <v>1048753.972867076</v>
+        <v>1115391.62245571</v>
       </c>
       <c r="AE11" t="n">
-        <v>1434951.453436603</v>
+        <v>1526128.025449387</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.348949931076605e-06</v>
+        <v>2.70396656882241e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.28515625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1298001.700687627</v>
+        <v>1380476.508634634</v>
       </c>
     </row>
     <row r="12">
@@ -26034,28 +26034,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1044.314636370774</v>
+        <v>1110.952285959408</v>
       </c>
       <c r="AB12" t="n">
-        <v>1428.877357392658</v>
+        <v>1520.053929405443</v>
       </c>
       <c r="AC12" t="n">
-        <v>1292.507307845069</v>
+        <v>1374.982115792076</v>
       </c>
       <c r="AD12" t="n">
-        <v>1044314.636370774</v>
+        <v>1110952.285959408</v>
       </c>
       <c r="AE12" t="n">
-        <v>1428877.357392658</v>
+        <v>1520053.929405443</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.351088050825462e-06</v>
+        <v>2.708252424203592e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1292507.307845069</v>
+        <v>1374982.115792076</v>
       </c>
     </row>
     <row r="13">
@@ -26140,28 +26140,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1050.063473383624</v>
+        <v>1116.701122972258</v>
       </c>
       <c r="AB13" t="n">
-        <v>1436.743169814428</v>
+        <v>1527.919741827213</v>
       </c>
       <c r="AC13" t="n">
-        <v>1299.622418169042</v>
+        <v>1382.097226116049</v>
       </c>
       <c r="AD13" t="n">
-        <v>1050063.473383624</v>
+        <v>1116701.122972257</v>
       </c>
       <c r="AE13" t="n">
-        <v>1436743.169814428</v>
+        <v>1527919.741827213</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.35088442037319e-06</v>
+        <v>2.707844247500622e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.26725260416667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1299622.418169042</v>
+        <v>1382097.226116049</v>
       </c>
     </row>
   </sheetData>
@@ -26437,28 +26437,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1753.82035889845</v>
+        <v>1838.982440461977</v>
       </c>
       <c r="AB2" t="n">
-        <v>2399.654388138374</v>
+        <v>2516.176905219469</v>
       </c>
       <c r="AC2" t="n">
-        <v>2170.634741270534</v>
+        <v>2276.036512861789</v>
       </c>
       <c r="AD2" t="n">
-        <v>1753820.35889845</v>
+        <v>1838982.440461977</v>
       </c>
       <c r="AE2" t="n">
-        <v>2399654.388138374</v>
+        <v>2516176.905219469</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.008184640491907e-06</v>
+        <v>2.109185317676373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.12076822916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2170634.741270534</v>
+        <v>2276036.512861789</v>
       </c>
     </row>
     <row r="3">
@@ -26543,28 +26543,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1242.058411972389</v>
+        <v>1316.489903674473</v>
       </c>
       <c r="AB3" t="n">
-        <v>1699.439115010469</v>
+        <v>1801.279565642923</v>
       </c>
       <c r="AC3" t="n">
-        <v>1537.247031051648</v>
+        <v>1629.36797200971</v>
       </c>
       <c r="AD3" t="n">
-        <v>1242058.411972389</v>
+        <v>1316489.903674473</v>
       </c>
       <c r="AE3" t="n">
-        <v>1699439.115010469</v>
+        <v>1801279.565642923</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.231860361804492e-06</v>
+        <v>2.577128914875981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.013671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1537247.031051648</v>
+        <v>1629367.97200971</v>
       </c>
     </row>
     <row r="4">
@@ -26649,28 +26649,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1102.558519687233</v>
+        <v>1166.430103237017</v>
       </c>
       <c r="AB4" t="n">
-        <v>1508.569208085021</v>
+        <v>1595.961126513229</v>
       </c>
       <c r="AC4" t="n">
-        <v>1364.593480155567</v>
+        <v>1443.644836544315</v>
       </c>
       <c r="AD4" t="n">
-        <v>1102558.519687233</v>
+        <v>1166430.103237017</v>
       </c>
       <c r="AE4" t="n">
-        <v>1508569.208085021</v>
+        <v>1595961.126513229</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.310555186467336e-06</v>
+        <v>2.741763409481058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.17220052083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1364593.480155567</v>
+        <v>1443644.836544315</v>
       </c>
     </row>
     <row r="5">
@@ -26755,28 +26755,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1023.344567872127</v>
+        <v>1097.77597006566</v>
       </c>
       <c r="AB5" t="n">
-        <v>1400.18518453868</v>
+        <v>1502.025512701586</v>
       </c>
       <c r="AC5" t="n">
-        <v>1266.553475698557</v>
+        <v>1358.674305875393</v>
       </c>
       <c r="AD5" t="n">
-        <v>1023344.567872127</v>
+        <v>1097775.97006566</v>
       </c>
       <c r="AE5" t="n">
-        <v>1400185.18453868</v>
+        <v>1502025.512701585</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.351069233665727e-06</v>
+        <v>2.826521329884211e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.77669270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1266553.475698557</v>
+        <v>1358674.305875393</v>
       </c>
     </row>
     <row r="6">
@@ -26861,28 +26861,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>975.2532653998907</v>
+        <v>1049.684667593423</v>
       </c>
       <c r="AB6" t="n">
-        <v>1334.384542857639</v>
+        <v>1436.224871020544</v>
       </c>
       <c r="AC6" t="n">
-        <v>1207.032754907773</v>
+        <v>1299.153585084609</v>
       </c>
       <c r="AD6" t="n">
-        <v>975253.2653998907</v>
+        <v>1049684.667593424</v>
       </c>
       <c r="AE6" t="n">
-        <v>1334384.542857639</v>
+        <v>1436224.871020544</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.375356450441726e-06</v>
+        <v>2.877331706251547e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.55045572916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1207032.754907773</v>
+        <v>1299153.585084609</v>
       </c>
     </row>
     <row r="7">
@@ -26967,28 +26967,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>937.0970835854404</v>
+        <v>1000.883326280652</v>
       </c>
       <c r="AB7" t="n">
-        <v>1282.17757156717</v>
+        <v>1369.45272287318</v>
       </c>
       <c r="AC7" t="n">
-        <v>1159.808343684322</v>
+        <v>1238.754077041131</v>
       </c>
       <c r="AD7" t="n">
-        <v>937097.0835854404</v>
+        <v>1000883.326280652</v>
       </c>
       <c r="AE7" t="n">
-        <v>1282177.57156717</v>
+        <v>1369452.72287318</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.39147722314894e-06</v>
+        <v>2.911057370914582e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.40559895833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1159808.343684322</v>
+        <v>1238754.077041131</v>
       </c>
     </row>
     <row r="8">
@@ -27073,28 +27073,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>922.7258275813612</v>
+        <v>986.5120702765728</v>
       </c>
       <c r="AB8" t="n">
-        <v>1262.51418508732</v>
+        <v>1349.789336393331</v>
       </c>
       <c r="AC8" t="n">
-        <v>1142.021603212373</v>
+        <v>1220.967336569183</v>
       </c>
       <c r="AD8" t="n">
-        <v>922725.8275813612</v>
+        <v>986512.0702765728</v>
       </c>
       <c r="AE8" t="n">
-        <v>1262514.18508732</v>
+        <v>1349789.336393331</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.397734628344503e-06</v>
+        <v>2.924148253908786e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.35026041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1142021.603212373</v>
+        <v>1220967.336569183</v>
       </c>
     </row>
   </sheetData>
@@ -50927,28 +50927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1345.728281531821</v>
+        <v>1427.851363154972</v>
       </c>
       <c r="AB2" t="n">
-        <v>1841.28480413354</v>
+        <v>1953.649227424998</v>
       </c>
       <c r="AC2" t="n">
-        <v>1665.555166686488</v>
+        <v>1767.195687123468</v>
       </c>
       <c r="AD2" t="n">
-        <v>1345728.281531821</v>
+        <v>1427851.363154972</v>
       </c>
       <c r="AE2" t="n">
-        <v>1841284.80413354</v>
+        <v>1953649.227424998</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.129263797807689e-06</v>
+        <v>2.454856622554674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.81217447916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1665555.166686488</v>
+        <v>1767195.687123468</v>
       </c>
     </row>
     <row r="3">
@@ -51033,28 +51033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1010.018855220184</v>
+        <v>1081.70595943985</v>
       </c>
       <c r="AB3" t="n">
-        <v>1381.95235659934</v>
+        <v>1480.037815204519</v>
       </c>
       <c r="AC3" t="n">
-        <v>1250.060763267813</v>
+        <v>1338.785083367519</v>
       </c>
       <c r="AD3" t="n">
-        <v>1010018.855220184</v>
+        <v>1081705.95943985</v>
       </c>
       <c r="AE3" t="n">
-        <v>1381952.35659934</v>
+        <v>1480037.815204519</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.324221707912057e-06</v>
+        <v>2.878667000314283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.48470052083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1250060.763267813</v>
+        <v>1338785.083367519</v>
       </c>
     </row>
     <row r="4">
@@ -51139,28 +51139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>899.8909323897057</v>
+        <v>971.6632879553919</v>
       </c>
       <c r="AB4" t="n">
-        <v>1231.27047408162</v>
+        <v>1329.472577339448</v>
       </c>
       <c r="AC4" t="n">
-        <v>1113.759748134234</v>
+        <v>1202.589580484652</v>
       </c>
       <c r="AD4" t="n">
-        <v>899890.9323897057</v>
+        <v>971663.2879553919</v>
       </c>
       <c r="AE4" t="n">
-        <v>1231270.47408162</v>
+        <v>1329472.577339449</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.39257217386311e-06</v>
+        <v>3.027251055094383e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.822265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1113759.748134234</v>
+        <v>1202589.580484652</v>
       </c>
     </row>
     <row r="5">
@@ -51245,28 +51245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>840.037600382561</v>
+        <v>901.7152524544966</v>
       </c>
       <c r="AB5" t="n">
-        <v>1149.376504686797</v>
+        <v>1233.766589277588</v>
       </c>
       <c r="AC5" t="n">
-        <v>1039.681624239544</v>
+        <v>1116.017637599218</v>
       </c>
       <c r="AD5" t="n">
-        <v>840037.600382561</v>
+        <v>901715.2524544967</v>
       </c>
       <c r="AE5" t="n">
-        <v>1149376.504686797</v>
+        <v>1233766.589277588</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.426253703633533e-06</v>
+        <v>3.10046984292342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.51953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1039681.624239544</v>
+        <v>1116017.637599218</v>
       </c>
     </row>
     <row r="6">
@@ -51351,28 +51351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>833.1202757736944</v>
+        <v>894.6273356450379</v>
       </c>
       <c r="AB6" t="n">
-        <v>1139.911915986122</v>
+        <v>1224.068588802066</v>
       </c>
       <c r="AC6" t="n">
-        <v>1031.120322600828</v>
+        <v>1107.245200677851</v>
       </c>
       <c r="AD6" t="n">
-        <v>833120.2757736944</v>
+        <v>894627.3356450378</v>
       </c>
       <c r="AE6" t="n">
-        <v>1139911.915986122</v>
+        <v>1224068.588802066</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.432068430271423e-06</v>
+        <v>3.113110219975338e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.46907552083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1031120.322600828</v>
+        <v>1107245.200677851</v>
       </c>
     </row>
   </sheetData>
@@ -51648,28 +51648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>740.8186482916162</v>
+        <v>807.4052896789004</v>
       </c>
       <c r="AB2" t="n">
-        <v>1013.62075720473</v>
+        <v>1104.727537546104</v>
       </c>
       <c r="AC2" t="n">
-        <v>916.8822147627773</v>
+        <v>999.2938918575408</v>
       </c>
       <c r="AD2" t="n">
-        <v>740818.6482916162</v>
+        <v>807405.2896789004</v>
       </c>
       <c r="AE2" t="n">
-        <v>1013620.75720473</v>
+        <v>1104727.537546105</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.39138426809934e-06</v>
+        <v>3.309444998296088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.7744140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>916882.2147627773</v>
+        <v>999293.8918575407</v>
       </c>
     </row>
     <row r="3">
@@ -51754,28 +51754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>659.7767963084452</v>
+        <v>716.8511498632397</v>
       </c>
       <c r="AB3" t="n">
-        <v>902.7357200071787</v>
+        <v>980.8273684836197</v>
       </c>
       <c r="AC3" t="n">
-        <v>816.5798898872333</v>
+        <v>887.2185810353999</v>
       </c>
       <c r="AD3" t="n">
-        <v>659776.7963084453</v>
+        <v>716851.1498632397</v>
       </c>
       <c r="AE3" t="n">
-        <v>902735.7200071786</v>
+        <v>980827.3684836196</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.473341229050351e-06</v>
+        <v>3.504381839766473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>816579.8898872333</v>
+        <v>887218.5810353999</v>
       </c>
     </row>
   </sheetData>
@@ -52051,28 +52051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3247.468674980287</v>
+        <v>3374.224494292977</v>
       </c>
       <c r="AB2" t="n">
-        <v>4443.329909314862</v>
+        <v>4616.762813370572</v>
       </c>
       <c r="AC2" t="n">
-        <v>4019.264739022378</v>
+        <v>4176.145450129615</v>
       </c>
       <c r="AD2" t="n">
-        <v>3247468.674980287</v>
+        <v>3374224.494292977</v>
       </c>
       <c r="AE2" t="n">
-        <v>4443329.909314862</v>
+        <v>4616762.813370572</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.397564469890942e-07</v>
+        <v>1.435555230629106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4019264.739022378</v>
+        <v>4176145.450129615</v>
       </c>
     </row>
     <row r="3">
@@ -52157,28 +52157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1898.488320045903</v>
+        <v>1990.674370455132</v>
       </c>
       <c r="AB3" t="n">
-        <v>2597.595474880326</v>
+        <v>2723.728496011745</v>
       </c>
       <c r="AC3" t="n">
-        <v>2349.684608505894</v>
+        <v>2463.779671129338</v>
       </c>
       <c r="AD3" t="n">
-        <v>1898488.320045903</v>
+        <v>1990674.370455132</v>
       </c>
       <c r="AE3" t="n">
-        <v>2597595.474880326</v>
+        <v>2723728.496011745</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.024156955362963e-06</v>
+        <v>1.987456655823044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.6494140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2349684.608505893</v>
+        <v>2463779.671129338</v>
       </c>
     </row>
     <row r="4">
@@ -52263,28 +52263,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1621.438873034511</v>
+        <v>1702.016415796565</v>
       </c>
       <c r="AB4" t="n">
-        <v>2218.524198920362</v>
+        <v>2328.773947757704</v>
       </c>
       <c r="AC4" t="n">
-        <v>2006.791363093671</v>
+        <v>2106.519030638472</v>
       </c>
       <c r="AD4" t="n">
-        <v>1621438.873034511</v>
+        <v>1702016.415796565</v>
       </c>
       <c r="AE4" t="n">
-        <v>2218524.198920362</v>
+        <v>2328773.947757704</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.129231519917991e-06</v>
+        <v>2.191362064646428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.1943359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2006791.363093671</v>
+        <v>2106519.030638472</v>
       </c>
     </row>
     <row r="5">
@@ -52369,28 +52369,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1489.565462525015</v>
+        <v>1570.22825663309</v>
       </c>
       <c r="AB5" t="n">
-        <v>2038.089180817002</v>
+        <v>2148.455574306993</v>
       </c>
       <c r="AC5" t="n">
-        <v>1843.576809875957</v>
+        <v>1943.40998967147</v>
       </c>
       <c r="AD5" t="n">
-        <v>1489565.462525015</v>
+        <v>1570228.25663309</v>
       </c>
       <c r="AE5" t="n">
-        <v>2038089.180817001</v>
+        <v>2148455.574306993</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.184969292681013e-06</v>
+        <v>2.299525571107566e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.525390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1843576.809875957</v>
+        <v>1943409.98967147</v>
       </c>
     </row>
     <row r="6">
@@ -52475,28 +52475,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1421.374511547719</v>
+        <v>1490.514138863192</v>
       </c>
       <c r="AB6" t="n">
-        <v>1944.787313317428</v>
+        <v>2039.38720163554</v>
       </c>
       <c r="AC6" t="n">
-        <v>1759.17954166055</v>
+        <v>1844.750949409358</v>
       </c>
       <c r="AD6" t="n">
-        <v>1421374.511547719</v>
+        <v>1490514.138863192</v>
       </c>
       <c r="AE6" t="n">
-        <v>1944787.313317428</v>
+        <v>2039387.20163554</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.217663533948369e-06</v>
+        <v>2.362971302812686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.16243489583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1759179.54166055</v>
+        <v>1844750.949409358</v>
       </c>
     </row>
     <row r="7">
@@ -52581,28 +52581,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1362.949190767385</v>
+        <v>1443.526644020888</v>
       </c>
       <c r="AB7" t="n">
-        <v>1864.847211882536</v>
+        <v>1975.096838250329</v>
       </c>
       <c r="AC7" t="n">
-        <v>1686.868811309966</v>
+        <v>1786.59636807354</v>
       </c>
       <c r="AD7" t="n">
-        <v>1362949.190767385</v>
+        <v>1443526.644020888</v>
       </c>
       <c r="AE7" t="n">
-        <v>1864847.211882536</v>
+        <v>1975096.838250329</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.239820775771126e-06</v>
+        <v>2.405969163155011e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.92805989583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1686868.811309966</v>
+        <v>1786596.36807354</v>
       </c>
     </row>
     <row r="8">
@@ -52687,28 +52687,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1325.44718243479</v>
+        <v>1406.024635688293</v>
       </c>
       <c r="AB8" t="n">
-        <v>1813.535309610038</v>
+        <v>1923.784935977832</v>
       </c>
       <c r="AC8" t="n">
-        <v>1640.454044973649</v>
+        <v>1740.181601737223</v>
       </c>
       <c r="AD8" t="n">
-        <v>1325447.18243479</v>
+        <v>1406024.635688293</v>
       </c>
       <c r="AE8" t="n">
-        <v>1813535.309610038</v>
+        <v>1923784.935977832</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.256561802926097e-06</v>
+        <v>2.438456435413658e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.75553385416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1640454.044973649</v>
+        <v>1740181.601737223</v>
       </c>
     </row>
     <row r="9">
@@ -52793,28 +52793,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1293.857730132353</v>
+        <v>1374.435183385856</v>
       </c>
       <c r="AB9" t="n">
-        <v>1770.313227341566</v>
+        <v>1880.562853709359</v>
       </c>
       <c r="AC9" t="n">
-        <v>1601.357017574306</v>
+        <v>1701.08457433788</v>
       </c>
       <c r="AD9" t="n">
-        <v>1293857.730132353</v>
+        <v>1374435.183385856</v>
       </c>
       <c r="AE9" t="n">
-        <v>1770313.227341566</v>
+        <v>1880562.853709359</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.270053101280398e-06</v>
+        <v>2.464637354822096e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.62044270833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1601357.017574306</v>
+        <v>1701084.57433788</v>
       </c>
     </row>
     <row r="10">
@@ -52899,28 +52899,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1268.88785861779</v>
+        <v>1338.112737279283</v>
       </c>
       <c r="AB10" t="n">
-        <v>1736.148347542356</v>
+        <v>1830.864880513118</v>
       </c>
       <c r="AC10" t="n">
-        <v>1570.452785952423</v>
+        <v>1656.129705951944</v>
       </c>
       <c r="AD10" t="n">
-        <v>1268887.85861779</v>
+        <v>1338112.737279283</v>
       </c>
       <c r="AE10" t="n">
-        <v>1736148.347542356</v>
+        <v>1830864.880513118</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.279408381161117e-06</v>
+        <v>2.482792006966633e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.52766927083333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1570452.785952423</v>
+        <v>1656129.705951944</v>
       </c>
     </row>
     <row r="11">
@@ -53005,28 +53005,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1245.504960881877</v>
+        <v>1314.559247342778</v>
       </c>
       <c r="AB11" t="n">
-        <v>1704.154835279437</v>
+        <v>1798.637956475352</v>
       </c>
       <c r="AC11" t="n">
-        <v>1541.5126895967</v>
+        <v>1626.97847431357</v>
       </c>
       <c r="AD11" t="n">
-        <v>1245504.960881877</v>
+        <v>1314559.247342778</v>
       </c>
       <c r="AE11" t="n">
-        <v>1704154.835279437</v>
+        <v>1798637.956475352</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.287483464847633e-06</v>
+        <v>2.498462338291391e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.44954427083333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1541512.6895967</v>
+        <v>1626978.47431357</v>
       </c>
     </row>
     <row r="12">
@@ -53111,28 +53111,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1223.477665755935</v>
+        <v>1292.531952216835</v>
       </c>
       <c r="AB12" t="n">
-        <v>1674.016118312447</v>
+        <v>1768.499239508362</v>
       </c>
       <c r="AC12" t="n">
-        <v>1514.250369477084</v>
+        <v>1599.716154193954</v>
       </c>
       <c r="AD12" t="n">
-        <v>1223477.665755935</v>
+        <v>1292531.952216835</v>
       </c>
       <c r="AE12" t="n">
-        <v>1674016.118312447</v>
+        <v>1768499.239508362</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.294278352339945e-06</v>
+        <v>2.511648348796371e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1514250.369477084</v>
+        <v>1599716.154193955</v>
       </c>
     </row>
     <row r="13">
@@ -53217,28 +53217,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1205.302431383275</v>
+        <v>1274.356717844176</v>
       </c>
       <c r="AB13" t="n">
-        <v>1649.147960809024</v>
+        <v>1743.631082004938</v>
       </c>
       <c r="AC13" t="n">
-        <v>1491.75559402311</v>
+        <v>1577.22137873998</v>
       </c>
       <c r="AD13" t="n">
-        <v>1205302.431383275</v>
+        <v>1274356.717844176</v>
       </c>
       <c r="AE13" t="n">
-        <v>1649147.960809024</v>
+        <v>1743631.082004938</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.298709800704496e-06</v>
+        <v>2.520247920864837e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.34212239583333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1491755.59402311</v>
+        <v>1577221.37873998</v>
       </c>
     </row>
     <row r="14">
@@ -53323,28 +53323,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1184.678565037858</v>
+        <v>1253.732851498759</v>
       </c>
       <c r="AB14" t="n">
-        <v>1620.929477014456</v>
+        <v>1715.412598210371</v>
       </c>
       <c r="AC14" t="n">
-        <v>1466.230242717005</v>
+        <v>1551.696027433876</v>
       </c>
       <c r="AD14" t="n">
-        <v>1184678.565037858</v>
+        <v>1253732.851498759</v>
       </c>
       <c r="AE14" t="n">
-        <v>1620929.477014456</v>
+        <v>1715412.598210371</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.304421445263251e-06</v>
+        <v>2.531331813753081e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.28678385416667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1466230.242717005</v>
+        <v>1551696.027433875</v>
       </c>
     </row>
     <row r="15">
@@ -53429,28 +53429,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1167.968221023546</v>
+        <v>1237.022507484447</v>
       </c>
       <c r="AB15" t="n">
-        <v>1598.065647125726</v>
+        <v>1692.548768321641</v>
       </c>
       <c r="AC15" t="n">
-        <v>1445.548504663269</v>
+        <v>1531.014289380139</v>
       </c>
       <c r="AD15" t="n">
-        <v>1167968.221023546</v>
+        <v>1237022.507484447</v>
       </c>
       <c r="AE15" t="n">
-        <v>1598065.647125726</v>
+        <v>1692548.768321641</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.307966603954892e-06</v>
+        <v>2.538211471407853e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.25423177083333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1445548.504663269</v>
+        <v>1531014.289380139</v>
       </c>
     </row>
     <row r="16">
@@ -53535,28 +53535,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1152.937003196489</v>
+        <v>1221.991289657389</v>
       </c>
       <c r="AB16" t="n">
-        <v>1577.499271764216</v>
+        <v>1671.982392960131</v>
       </c>
       <c r="AC16" t="n">
-        <v>1426.944955301173</v>
+        <v>1512.410740018043</v>
       </c>
       <c r="AD16" t="n">
-        <v>1152937.003196489</v>
+        <v>1221991.28965739</v>
       </c>
       <c r="AE16" t="n">
-        <v>1577499.271764216</v>
+        <v>1671982.392960131</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.31111785612524e-06</v>
+        <v>2.544326722656539e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.22493489583333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1426944.955301173</v>
+        <v>1512410.740018043</v>
       </c>
     </row>
     <row r="17">
@@ -53641,28 +53641,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1159.05602467167</v>
+        <v>1228.110311132571</v>
       </c>
       <c r="AB17" t="n">
-        <v>1585.871586898736</v>
+        <v>1680.354708094651</v>
       </c>
       <c r="AC17" t="n">
-        <v>1434.518228429871</v>
+        <v>1519.984013146741</v>
       </c>
       <c r="AD17" t="n">
-        <v>1159056.02467167</v>
+        <v>1228110.311132571</v>
       </c>
       <c r="AE17" t="n">
-        <v>1585871.586898736</v>
+        <v>1680354.70809465</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.310723949603946e-06</v>
+        <v>2.543562316250453e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.22819010416667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1434518.228429871</v>
+        <v>1519984.013146741</v>
       </c>
     </row>
   </sheetData>
@@ -53938,28 +53938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4711.177439443518</v>
+        <v>4867.006238597137</v>
       </c>
       <c r="AB2" t="n">
-        <v>6446.040815126833</v>
+        <v>6659.252652810253</v>
       </c>
       <c r="AC2" t="n">
-        <v>5830.839726805989</v>
+        <v>6023.702925945589</v>
       </c>
       <c r="AD2" t="n">
-        <v>4711177.439443517</v>
+        <v>4867006.238597137</v>
       </c>
       <c r="AE2" t="n">
-        <v>6446040.815126833</v>
+        <v>6659252.652810253</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.039131461692324e-07</v>
+        <v>1.133177934610417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.576171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>5830839.726805989</v>
+        <v>6023702.925945589</v>
       </c>
     </row>
     <row r="3">
@@ -54044,28 +54044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2380.282850020191</v>
+        <v>2488.078985502739</v>
       </c>
       <c r="AB3" t="n">
-        <v>3256.808006065873</v>
+        <v>3404.299434262967</v>
       </c>
       <c r="AC3" t="n">
-        <v>2945.982820925568</v>
+        <v>3079.397874221045</v>
       </c>
       <c r="AD3" t="n">
-        <v>2380282.850020191</v>
+        <v>2488078.985502739</v>
       </c>
       <c r="AE3" t="n">
-        <v>3256808.006065872</v>
+        <v>3404299.434262967</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.159286120090243e-07</v>
+        <v>1.71864133011624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.86360677083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2945982.820925568</v>
+        <v>3079397.874221045</v>
       </c>
     </row>
     <row r="4">
@@ -54150,28 +54150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1961.383196394343</v>
+        <v>2057.192501172767</v>
       </c>
       <c r="AB4" t="n">
-        <v>2683.651019426376</v>
+        <v>2814.741537032429</v>
       </c>
       <c r="AC4" t="n">
-        <v>2427.527132660184</v>
+        <v>2546.106555252612</v>
       </c>
       <c r="AD4" t="n">
-        <v>1961383.196394343</v>
+        <v>2057192.501172767</v>
       </c>
       <c r="AE4" t="n">
-        <v>2683651.019426376</v>
+        <v>2814741.537032429</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.03445273513369e-06</v>
+        <v>1.941039073725355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.931640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2427527.132660184</v>
+        <v>2546106.555252612</v>
       </c>
     </row>
     <row r="5">
@@ -54256,28 +54256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1795.976254847889</v>
+        <v>1879.79881843074</v>
       </c>
       <c r="AB5" t="n">
-        <v>2457.333944763269</v>
+        <v>2572.02367424784</v>
       </c>
       <c r="AC5" t="n">
-        <v>2222.809441964915</v>
+        <v>2326.553344635525</v>
       </c>
       <c r="AD5" t="n">
-        <v>1795976.254847889</v>
+        <v>1879798.81843074</v>
       </c>
       <c r="AE5" t="n">
-        <v>2457333.944763269</v>
+        <v>2572023.67424784</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.096703995958174e-06</v>
+        <v>2.057846855797076e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.08365885416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2222809.441964915</v>
+        <v>2326553.344635525</v>
       </c>
     </row>
     <row r="6">
@@ -54362,28 +54362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1687.610054733977</v>
+        <v>1771.517869662848</v>
       </c>
       <c r="AB6" t="n">
-        <v>2309.062528988077</v>
+        <v>2423.868903125296</v>
       </c>
       <c r="AC6" t="n">
-        <v>2088.688842011068</v>
+        <v>2192.538256932389</v>
       </c>
       <c r="AD6" t="n">
-        <v>1687610.054733977</v>
+        <v>1771517.869662848</v>
       </c>
       <c r="AE6" t="n">
-        <v>2309062.528988077</v>
+        <v>2423868.903125296</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.136370195690848e-06</v>
+        <v>2.132276204739118e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.59212239583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2088688.842011068</v>
+        <v>2192538.256932389</v>
       </c>
     </row>
     <row r="7">
@@ -54468,28 +54468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1625.487188170692</v>
+        <v>1709.224410898971</v>
       </c>
       <c r="AB7" t="n">
-        <v>2224.063282288743</v>
+        <v>2338.636244651116</v>
       </c>
       <c r="AC7" t="n">
-        <v>2011.801804119526</v>
+        <v>2115.440083758197</v>
       </c>
       <c r="AD7" t="n">
-        <v>1625487.188170691</v>
+        <v>1709224.410898971</v>
       </c>
       <c r="AE7" t="n">
-        <v>2224063.282288743</v>
+        <v>2338636.244651116</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.163035751013531e-06</v>
+        <v>2.182311245535085e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2011801.804119526</v>
+        <v>2115440.083758197</v>
       </c>
     </row>
     <row r="8">
@@ -54574,28 +54574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1581.324879290335</v>
+        <v>1653.245953023633</v>
       </c>
       <c r="AB8" t="n">
-        <v>2163.638462975076</v>
+        <v>2262.044048990813</v>
       </c>
       <c r="AC8" t="n">
-        <v>1957.143844754389</v>
+        <v>2046.157739753892</v>
       </c>
       <c r="AD8" t="n">
-        <v>1581324.879290335</v>
+        <v>1653245.953023633</v>
       </c>
       <c r="AE8" t="n">
-        <v>2163638.462975076</v>
+        <v>2262044.048990813</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.182014793947825e-06</v>
+        <v>2.217923374215487e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.06803385416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1957143.844754389</v>
+        <v>2046157.739753891</v>
       </c>
     </row>
     <row r="9">
@@ -54680,28 +54680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1531.359706873035</v>
+        <v>1615.182180947335</v>
       </c>
       <c r="AB9" t="n">
-        <v>2095.273909765892</v>
+        <v>2209.963516780914</v>
       </c>
       <c r="AC9" t="n">
-        <v>1895.303908553237</v>
+        <v>1999.047700442619</v>
       </c>
       <c r="AD9" t="n">
-        <v>1531359.706873035</v>
+        <v>1615182.180947335</v>
       </c>
       <c r="AE9" t="n">
-        <v>2095273.909765892</v>
+        <v>2209963.516780914</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.197672504368617e-06</v>
+        <v>2.24730338037682e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.8955078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1895303.908553237</v>
+        <v>1999047.700442619</v>
       </c>
     </row>
     <row r="10">
@@ -54786,28 +54786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1504.421791503429</v>
+        <v>1588.244265577728</v>
       </c>
       <c r="AB10" t="n">
-        <v>2058.416265540244</v>
+        <v>2173.105872555267</v>
       </c>
       <c r="AC10" t="n">
-        <v>1861.963906162456</v>
+        <v>1965.707698051839</v>
       </c>
       <c r="AD10" t="n">
-        <v>1504421.791503429</v>
+        <v>1588244.265577728</v>
       </c>
       <c r="AE10" t="n">
-        <v>2058416.265540244</v>
+        <v>2173105.872555267</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.208680349270508e-06</v>
+        <v>2.267958415011453e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.7783203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1861963.906162456</v>
+        <v>1965707.698051839</v>
       </c>
     </row>
     <row r="11">
@@ -54892,28 +54892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1479.855615687185</v>
+        <v>1563.678089761484</v>
       </c>
       <c r="AB11" t="n">
-        <v>2024.803740005271</v>
+        <v>2139.493347020294</v>
       </c>
       <c r="AC11" t="n">
-        <v>1831.559312889065</v>
+        <v>1935.303104778448</v>
       </c>
       <c r="AD11" t="n">
-        <v>1479855.615687185</v>
+        <v>1563678.089761484</v>
       </c>
       <c r="AE11" t="n">
-        <v>2024803.740005272</v>
+        <v>2139493.347020294</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.217980080308312e-06</v>
+        <v>2.285408358064851e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.6806640625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1831559.312889065</v>
+        <v>1935303.104778448</v>
       </c>
     </row>
     <row r="12">
@@ -54998,28 +54998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1458.619895030398</v>
+        <v>1542.442369104698</v>
       </c>
       <c r="AB12" t="n">
-        <v>1995.748090148781</v>
+        <v>2110.437697163803</v>
       </c>
       <c r="AC12" t="n">
-        <v>1805.276693475018</v>
+        <v>1909.020485364401</v>
       </c>
       <c r="AD12" t="n">
-        <v>1458619.895030398</v>
+        <v>1542442.369104698</v>
       </c>
       <c r="AE12" t="n">
-        <v>1995748.090148781</v>
+        <v>2110437.697163804</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.225761487911373e-06</v>
+        <v>2.300009330823816e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.60091145833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1805276.693475018</v>
+        <v>1909020.485364401</v>
       </c>
     </row>
     <row r="13">
@@ -55104,28 +55104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1441.879942813729</v>
+        <v>1525.702416888028</v>
       </c>
       <c r="AB13" t="n">
-        <v>1972.843749011363</v>
+        <v>2087.533356026386</v>
       </c>
       <c r="AC13" t="n">
-        <v>1784.558310509311</v>
+        <v>1888.302102398693</v>
       </c>
       <c r="AD13" t="n">
-        <v>1441879.942813729</v>
+        <v>1525702.416888028</v>
       </c>
       <c r="AE13" t="n">
-        <v>1972843.749011363</v>
+        <v>2087533.356026386</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.231550096006332e-06</v>
+        <v>2.310871030071339e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.54069010416667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1784558.310509311</v>
+        <v>1888302.102398693</v>
       </c>
     </row>
     <row r="14">
@@ -55210,28 +55210,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1424.016394398881</v>
+        <v>1495.852127277607</v>
       </c>
       <c r="AB14" t="n">
-        <v>1948.402053986033</v>
+        <v>2046.690872879573</v>
       </c>
       <c r="AC14" t="n">
-        <v>1762.449296553064</v>
+        <v>1851.357568520627</v>
       </c>
       <c r="AD14" t="n">
-        <v>1424016.394398881</v>
+        <v>1495852.127277608</v>
       </c>
       <c r="AE14" t="n">
-        <v>1948402.053986033</v>
+        <v>2046690.872879573</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.23724380888662e-06</v>
+        <v>2.321554668675459e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.48372395833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1762449.296553064</v>
+        <v>1851357.568520627</v>
       </c>
     </row>
     <row r="15">
@@ -55316,28 +55316,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1407.516715365908</v>
+        <v>1479.352448244635</v>
       </c>
       <c r="AB15" t="n">
-        <v>1925.826465218654</v>
+        <v>2024.115284112194</v>
       </c>
       <c r="AC15" t="n">
-        <v>1742.028290292606</v>
+        <v>1830.936562260169</v>
       </c>
       <c r="AD15" t="n">
-        <v>1407516.715365908</v>
+        <v>1479352.448244635</v>
       </c>
       <c r="AE15" t="n">
-        <v>1925826.465218654</v>
+        <v>2024115.284112194</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.242178360049537e-06</v>
+        <v>2.330813822132364e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.43326822916667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1742028.290292606</v>
+        <v>1830936.562260169</v>
       </c>
     </row>
     <row r="16">
@@ -55422,28 +55422,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1392.422817547647</v>
+        <v>1464.258550426373</v>
       </c>
       <c r="AB16" t="n">
-        <v>1905.174328327934</v>
+        <v>2003.463147221473</v>
       </c>
       <c r="AC16" t="n">
-        <v>1723.347164361279</v>
+        <v>1812.255436328843</v>
       </c>
       <c r="AD16" t="n">
-        <v>1392422.817547647</v>
+        <v>1464258.550426373</v>
       </c>
       <c r="AE16" t="n">
-        <v>1905174.328327934</v>
+        <v>2003463.147221473</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.245784378207053e-06</v>
+        <v>2.337580126581641e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.3974609375</v>
       </c>
       <c r="AH16" t="n">
-        <v>1723347.164361279</v>
+        <v>1812255.436328843</v>
       </c>
     </row>
     <row r="17">
@@ -55528,28 +55528,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1377.819811709675</v>
+        <v>1449.655544588401</v>
       </c>
       <c r="AB17" t="n">
-        <v>1885.193851501272</v>
+        <v>1983.482670394811</v>
       </c>
       <c r="AC17" t="n">
-        <v>1705.273596200178</v>
+        <v>1794.181868167742</v>
       </c>
       <c r="AD17" t="n">
-        <v>1377819.811709675</v>
+        <v>1449655.544588401</v>
       </c>
       <c r="AE17" t="n">
-        <v>1885193.851501272</v>
+        <v>1983482.670394811</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.249580186793911e-06</v>
+        <v>2.344702552317721e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.36002604166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1705273.596200178</v>
+        <v>1794181.868167742</v>
       </c>
     </row>
     <row r="18">
@@ -55634,28 +55634,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1363.275565215233</v>
+        <v>1435.111298093959</v>
       </c>
       <c r="AB18" t="n">
-        <v>1865.293771800706</v>
+        <v>1963.582590694245</v>
       </c>
       <c r="AC18" t="n">
-        <v>1687.272752176297</v>
+        <v>1776.181024143861</v>
       </c>
       <c r="AD18" t="n">
-        <v>1363275.565215233</v>
+        <v>1435111.298093959</v>
       </c>
       <c r="AE18" t="n">
-        <v>1865293.771800706</v>
+        <v>1963582.590694245</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.253091309736756e-06</v>
+        <v>2.351290796123596e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.32584635416667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1687272.752176297</v>
+        <v>1776181.024143861</v>
       </c>
     </row>
     <row r="19">
@@ -55740,28 +55740,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1350.575493155121</v>
+        <v>1422.411226033847</v>
       </c>
       <c r="AB19" t="n">
-        <v>1847.916972920424</v>
+        <v>1946.205791813964</v>
       </c>
       <c r="AC19" t="n">
-        <v>1671.554370592659</v>
+        <v>1760.462642560223</v>
       </c>
       <c r="AD19" t="n">
-        <v>1350575.493155121</v>
+        <v>1422411.226033847</v>
       </c>
       <c r="AE19" t="n">
-        <v>1847916.972920424</v>
+        <v>1946205.791813964</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.255558585318214e-06</v>
+        <v>2.355920372852048e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.30143229166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1671554.370592659</v>
+        <v>1760462.642560223</v>
       </c>
     </row>
     <row r="20">
@@ -55846,28 +55846,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1336.495509718184</v>
+        <v>1408.33124259691</v>
       </c>
       <c r="AB20" t="n">
-        <v>1828.652118416978</v>
+        <v>1926.940937310517</v>
       </c>
       <c r="AC20" t="n">
-        <v>1654.128126764628</v>
+        <v>1743.036398732192</v>
       </c>
       <c r="AD20" t="n">
-        <v>1336495.509718184</v>
+        <v>1408331.24259691</v>
       </c>
       <c r="AE20" t="n">
-        <v>1828652.118416978</v>
+        <v>1926940.937310517</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.259259498690401e-06</v>
+        <v>2.362864737944726e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH20" t="n">
-        <v>1654128.126764628</v>
+        <v>1743036.398732192</v>
       </c>
     </row>
     <row r="21">
@@ -55952,28 +55952,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1321.613246969095</v>
+        <v>1393.448979847821</v>
       </c>
       <c r="AB21" t="n">
-        <v>1808.289549964579</v>
+        <v>1906.578368858118</v>
       </c>
       <c r="AC21" t="n">
-        <v>1635.708933266282</v>
+        <v>1724.617205233845</v>
       </c>
       <c r="AD21" t="n">
-        <v>1321613.246969095</v>
+        <v>1393448.979847821</v>
       </c>
       <c r="AE21" t="n">
-        <v>1808289.549964579</v>
+        <v>1906578.368858118</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.261631879057188e-06</v>
+        <v>2.367316254029777e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.2412109375</v>
       </c>
       <c r="AH21" t="n">
-        <v>1635708.933266282</v>
+        <v>1724617.205233845</v>
       </c>
     </row>
     <row r="22">
@@ -56058,28 +56058,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1314.393082755173</v>
+        <v>1386.2288156339</v>
       </c>
       <c r="AB22" t="n">
-        <v>1798.410602755927</v>
+        <v>1896.699421649466</v>
       </c>
       <c r="AC22" t="n">
-        <v>1626.772818914035</v>
+        <v>1715.681090881598</v>
       </c>
       <c r="AD22" t="n">
-        <v>1314393.082755173</v>
+        <v>1386228.8156339</v>
       </c>
       <c r="AE22" t="n">
-        <v>1798410.602755927</v>
+        <v>1896699.421649466</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.262485935989231e-06</v>
+        <v>2.368918799820395e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.23307291666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1626772.818914035</v>
+        <v>1715681.090881598</v>
       </c>
     </row>
     <row r="23">
@@ -56164,28 +56164,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1301.838669222639</v>
+        <v>1373.674402101365</v>
       </c>
       <c r="AB23" t="n">
-        <v>1781.233100299078</v>
+        <v>1879.521919192617</v>
       </c>
       <c r="AC23" t="n">
-        <v>1611.234713182891</v>
+        <v>1700.142985150454</v>
       </c>
       <c r="AD23" t="n">
-        <v>1301838.669222639</v>
+        <v>1373674.402101365</v>
       </c>
       <c r="AE23" t="n">
-        <v>1781233.100299078</v>
+        <v>1879521.919192617</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.265237897214704e-06</v>
+        <v>2.374082558479053e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.20703125</v>
       </c>
       <c r="AH23" t="n">
-        <v>1611234.713182891</v>
+        <v>1700142.985150455</v>
       </c>
     </row>
     <row r="24">
@@ -56270,28 +56270,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1303.938415200446</v>
+        <v>1375.774148079172</v>
       </c>
       <c r="AB24" t="n">
-        <v>1784.106065380169</v>
+        <v>1882.394884273708</v>
       </c>
       <c r="AC24" t="n">
-        <v>1613.833486508875</v>
+        <v>1702.741758476438</v>
       </c>
       <c r="AD24" t="n">
-        <v>1303938.415200446</v>
+        <v>1375774.148079172</v>
       </c>
       <c r="AE24" t="n">
-        <v>1784106.065380169</v>
+        <v>1882394.884273708</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.264858316356018e-06</v>
+        <v>2.373370315905446e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.21028645833333</v>
       </c>
       <c r="AH24" t="n">
-        <v>1613833.486508874</v>
+        <v>1702741.758476438</v>
       </c>
     </row>
     <row r="25">
@@ -56376,28 +56376,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1309.28687774281</v>
+        <v>1381.122610621536</v>
       </c>
       <c r="AB25" t="n">
-        <v>1791.424067788145</v>
+        <v>1889.712886681684</v>
       </c>
       <c r="AC25" t="n">
-        <v>1620.453069037914</v>
+        <v>1709.361341005477</v>
       </c>
       <c r="AD25" t="n">
-        <v>1309286.877742809</v>
+        <v>1381122.610621536</v>
       </c>
       <c r="AE25" t="n">
-        <v>1791424.067788145</v>
+        <v>1889712.886681684</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.264858316356018e-06</v>
+        <v>2.373370315905446e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.21028645833333</v>
       </c>
       <c r="AH25" t="n">
-        <v>1620453.069037914</v>
+        <v>1709361.341005477</v>
       </c>
     </row>
   </sheetData>
@@ -56673,28 +56673,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>563.3810822068691</v>
+        <v>627.5024329495029</v>
       </c>
       <c r="AB2" t="n">
-        <v>770.8428512946354</v>
+        <v>858.5765122150524</v>
       </c>
       <c r="AC2" t="n">
-        <v>697.2746914518111</v>
+        <v>776.6351749089501</v>
       </c>
       <c r="AD2" t="n">
-        <v>563381.0822068691</v>
+        <v>627502.432949503</v>
       </c>
       <c r="AE2" t="n">
-        <v>770842.8512946353</v>
+        <v>858576.5122150524</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.458096239493503e-06</v>
+        <v>3.646588040732514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.61165364583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>697274.6914518111</v>
+        <v>776635.1749089501</v>
       </c>
     </row>
   </sheetData>
@@ -56970,28 +56970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1960.009733316274</v>
+        <v>2057.33525608536</v>
       </c>
       <c r="AB2" t="n">
-        <v>2681.771786650047</v>
+        <v>2814.936860601741</v>
       </c>
       <c r="AC2" t="n">
-        <v>2425.827251222508</v>
+        <v>2546.283237414608</v>
       </c>
       <c r="AD2" t="n">
-        <v>1960009.733316274</v>
+        <v>2057335.25608536</v>
       </c>
       <c r="AE2" t="n">
-        <v>2681771.786650047</v>
+        <v>2814936.86060174</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.553426982041268e-07</v>
+        <v>1.967321415246689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.80598958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2425827.251222508</v>
+        <v>2546283.237414608</v>
       </c>
     </row>
     <row r="3">
@@ -57076,28 +57076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1348.088694022715</v>
+        <v>1423.701071497094</v>
       </c>
       <c r="AB3" t="n">
-        <v>1844.514424637631</v>
+        <v>1947.970615280744</v>
       </c>
       <c r="AC3" t="n">
-        <v>1668.476556742469</v>
+        <v>1762.059033752279</v>
       </c>
       <c r="AD3" t="n">
-        <v>1348088.694022715</v>
+        <v>1423701.071497094</v>
       </c>
       <c r="AE3" t="n">
-        <v>1844514.424637631</v>
+        <v>1947970.615280744</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.191957496227772e-06</v>
+        <v>2.45457835476299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1668476.556742469</v>
+        <v>1762059.033752279</v>
       </c>
     </row>
     <row r="4">
@@ -57182,28 +57182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1192.066186683812</v>
+        <v>1267.59322330362</v>
       </c>
       <c r="AB4" t="n">
-        <v>1631.037546869315</v>
+        <v>1734.37697039023</v>
       </c>
       <c r="AC4" t="n">
-        <v>1475.373612571681</v>
+        <v>1568.850466549552</v>
       </c>
       <c r="AD4" t="n">
-        <v>1192066.186683812</v>
+        <v>1267593.22330362</v>
       </c>
       <c r="AE4" t="n">
-        <v>1631037.546869315</v>
+        <v>1734376.97039023</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.274626358964832e-06</v>
+        <v>2.624816976298941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.3447265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1475373.612571681</v>
+        <v>1568850.466549552</v>
       </c>
     </row>
     <row r="5">
@@ -57288,28 +57288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1105.759952112071</v>
+        <v>1181.3722400779</v>
       </c>
       <c r="AB5" t="n">
-        <v>1512.949549165914</v>
+        <v>1616.405617339479</v>
       </c>
       <c r="AC5" t="n">
-        <v>1368.555767631547</v>
+        <v>1462.138133860131</v>
       </c>
       <c r="AD5" t="n">
-        <v>1105759.952112071</v>
+        <v>1181372.2400779</v>
       </c>
       <c r="AE5" t="n">
-        <v>1512949.549165914</v>
+        <v>1616405.617339479</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.318207794819894e-06</v>
+        <v>2.714563506236352e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.9052734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1368555.767631548</v>
+        <v>1462138.133860131</v>
       </c>
     </row>
     <row r="6">
@@ -57394,28 +57394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1055.951380700789</v>
+        <v>1131.563668666618</v>
       </c>
       <c r="AB6" t="n">
-        <v>1444.799264361912</v>
+        <v>1548.255332535477</v>
       </c>
       <c r="AC6" t="n">
-        <v>1306.909650359714</v>
+        <v>1400.492016588297</v>
       </c>
       <c r="AD6" t="n">
-        <v>1055951.380700789</v>
+        <v>1131563.668666618</v>
       </c>
       <c r="AE6" t="n">
-        <v>1444799.264361912</v>
+        <v>1548255.332535477</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.344022218455866e-06</v>
+        <v>2.767722721810789e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1306909.650359714</v>
+        <v>1400492.016588297</v>
       </c>
     </row>
     <row r="7">
@@ -57500,28 +57500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1015.808676760065</v>
+        <v>1080.607107260101</v>
       </c>
       <c r="AB7" t="n">
-        <v>1389.874245859104</v>
+        <v>1478.53431717425</v>
       </c>
       <c r="AC7" t="n">
-        <v>1257.226598535066</v>
+        <v>1337.425077079087</v>
       </c>
       <c r="AD7" t="n">
-        <v>1015808.676760065</v>
+        <v>1080607.107260101</v>
       </c>
       <c r="AE7" t="n">
-        <v>1389874.245859104</v>
+        <v>1478534.31717425</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.362729837204202e-06</v>
+        <v>2.806247011640037e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.48209635416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1257226.598535066</v>
+        <v>1337425.077079087</v>
       </c>
     </row>
     <row r="8">
@@ -57606,28 +57606,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>983.7137173703439</v>
+        <v>1048.512147870381</v>
       </c>
       <c r="AB8" t="n">
-        <v>1345.960506492411</v>
+        <v>1434.620577807558</v>
       </c>
       <c r="AC8" t="n">
-        <v>1217.50392482021</v>
+        <v>1297.702403364231</v>
       </c>
       <c r="AD8" t="n">
-        <v>983713.717370344</v>
+        <v>1048512.147870381</v>
       </c>
       <c r="AE8" t="n">
-        <v>1345960.506492411</v>
+        <v>1434620.577807558</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.374435162901485e-06</v>
+        <v>2.830351595220349e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.37630208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1217503.92482021</v>
+        <v>1297702.403364231</v>
       </c>
     </row>
     <row r="9">
@@ -57712,28 +57712,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>964.5901200610517</v>
+        <v>1029.388550561089</v>
       </c>
       <c r="AB9" t="n">
-        <v>1319.794756980267</v>
+        <v>1408.454828295414</v>
       </c>
       <c r="AC9" t="n">
-        <v>1193.835397717645</v>
+        <v>1274.033876261666</v>
       </c>
       <c r="AD9" t="n">
-        <v>964590.1200610517</v>
+        <v>1029388.550561089</v>
       </c>
       <c r="AE9" t="n">
-        <v>1319794.756980268</v>
+        <v>1408454.828295415</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.381541967789121e-06</v>
+        <v>2.844986520965538e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.31282552083333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1193835.397717645</v>
+        <v>1274033.876261666</v>
       </c>
     </row>
     <row r="10">
@@ -57818,28 +57818,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>970.8646348982626</v>
+        <v>1035.6630653983</v>
       </c>
       <c r="AB10" t="n">
-        <v>1328.379824992597</v>
+        <v>1417.039896307744</v>
       </c>
       <c r="AC10" t="n">
-        <v>1201.601118888097</v>
+        <v>1281.799597432118</v>
       </c>
       <c r="AD10" t="n">
-        <v>970864.6348982626</v>
+        <v>1035663.065398299</v>
       </c>
       <c r="AE10" t="n">
-        <v>1328379.824992597</v>
+        <v>1417039.896307744</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.381123920442789e-06</v>
+        <v>2.844125642980527e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.31608072916667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1201601.118888097</v>
+        <v>1281799.597432118</v>
       </c>
     </row>
   </sheetData>
@@ -58115,28 +58115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2685.687890757152</v>
+        <v>2798.215712698868</v>
       </c>
       <c r="AB2" t="n">
-        <v>3674.676656321692</v>
+        <v>3828.642186679491</v>
       </c>
       <c r="AC2" t="n">
-        <v>3323.97067368329</v>
+        <v>3463.241949915714</v>
       </c>
       <c r="AD2" t="n">
-        <v>2685687.890757152</v>
+        <v>2798215.712698868</v>
       </c>
       <c r="AE2" t="n">
-        <v>3674676.656321692</v>
+        <v>3828642.186679491</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.184633914535558e-07</v>
+        <v>1.621526667223674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.009765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3323970.67368329</v>
+        <v>3463241.949915714</v>
       </c>
     </row>
     <row r="3">
@@ -58221,28 +58221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1676.952592922069</v>
+        <v>1755.781833732035</v>
       </c>
       <c r="AB3" t="n">
-        <v>2294.480519562992</v>
+        <v>2402.338164539848</v>
       </c>
       <c r="AC3" t="n">
-        <v>2075.498519099534</v>
+        <v>2173.062381818954</v>
       </c>
       <c r="AD3" t="n">
-        <v>1676952.592922069</v>
+        <v>1755781.833732035</v>
       </c>
       <c r="AE3" t="n">
-        <v>2294480.519562991</v>
+        <v>2402338.164539848</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.086622346238868e-06</v>
+        <v>2.152798927876623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.07161458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2075498.519099534</v>
+        <v>2173062.381818954</v>
       </c>
     </row>
     <row r="4">
@@ -58327,28 +58327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1444.477982885456</v>
+        <v>1523.307134186871</v>
       </c>
       <c r="AB4" t="n">
-        <v>1976.398502054941</v>
+        <v>2084.256024562248</v>
       </c>
       <c r="AC4" t="n">
-        <v>1787.773802911536</v>
+        <v>1885.337554849729</v>
       </c>
       <c r="AD4" t="n">
-        <v>1444477.982885456</v>
+        <v>1523307.134186871</v>
       </c>
       <c r="AE4" t="n">
-        <v>1976398.502054941</v>
+        <v>2084256.024562248</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.182817453471422e-06</v>
+        <v>2.343379145957005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.84602864583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1787773.802911536</v>
+        <v>1885337.554849729</v>
       </c>
     </row>
     <row r="5">
@@ -58433,28 +58433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1344.370836022252</v>
+        <v>1423.029395123074</v>
       </c>
       <c r="AB5" t="n">
-        <v>1839.427487301079</v>
+        <v>1947.05159803354</v>
       </c>
       <c r="AC5" t="n">
-        <v>1663.875109565756</v>
+        <v>1761.227726221299</v>
       </c>
       <c r="AD5" t="n">
-        <v>1344370.836022252</v>
+        <v>1423029.395123074</v>
       </c>
       <c r="AE5" t="n">
-        <v>1839427.487301079</v>
+        <v>1947051.59803354</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.23383305950375e-06</v>
+        <v>2.444450454081225e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.27311197916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1663875.109565756</v>
+        <v>1761227.726221299</v>
       </c>
     </row>
     <row r="6">
@@ -58539,28 +58539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1274.52382454633</v>
+        <v>1353.267634993174</v>
       </c>
       <c r="AB6" t="n">
-        <v>1743.859724767053</v>
+        <v>1851.600480152164</v>
       </c>
       <c r="AC6" t="n">
-        <v>1577.428200157781</v>
+        <v>1674.886329064036</v>
       </c>
       <c r="AD6" t="n">
-        <v>1274523.82454633</v>
+        <v>1353267.634993174</v>
       </c>
       <c r="AE6" t="n">
-        <v>1743859.724767053</v>
+        <v>1851600.480152164</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.263717941143989e-06</v>
+        <v>2.503657906769377e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.958984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1577428.200157781</v>
+        <v>1674886.329064036</v>
       </c>
     </row>
     <row r="7">
@@ -58645,28 +58645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1231.252782189916</v>
+        <v>1309.996592636759</v>
       </c>
       <c r="AB7" t="n">
-        <v>1684.654375631348</v>
+        <v>1792.395131016458</v>
       </c>
       <c r="AC7" t="n">
-        <v>1523.873326448358</v>
+        <v>1621.331455354613</v>
       </c>
       <c r="AD7" t="n">
-        <v>1231252.782189916</v>
+        <v>1309996.592636759</v>
       </c>
       <c r="AE7" t="n">
-        <v>1684654.375631348</v>
+        <v>1792395.131016458</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.284144308056341e-06</v>
+        <v>2.544126300357576e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.75390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1523873.326448358</v>
+        <v>1621331.455354613</v>
       </c>
     </row>
     <row r="8">
@@ -58751,28 +58751,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1196.645037596008</v>
+        <v>1275.388848042851</v>
       </c>
       <c r="AB8" t="n">
-        <v>1637.302532692027</v>
+        <v>1745.043288077137</v>
       </c>
       <c r="AC8" t="n">
-        <v>1481.040676940437</v>
+        <v>1578.498805846692</v>
       </c>
       <c r="AD8" t="n">
-        <v>1196645.037596008</v>
+        <v>1275388.848042851</v>
       </c>
       <c r="AE8" t="n">
-        <v>1637302.532692027</v>
+        <v>1745043.288077137</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.299640172610539e-06</v>
+        <v>2.574826461010692e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.60091145833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1481040.676940437</v>
+        <v>1578498.805846692</v>
       </c>
     </row>
     <row r="9">
@@ -58857,28 +58857,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1168.317346918855</v>
+        <v>1235.799939545476</v>
       </c>
       <c r="AB9" t="n">
-        <v>1598.543336578035</v>
+        <v>1690.87599693165</v>
       </c>
       <c r="AC9" t="n">
-        <v>1445.980604104691</v>
+        <v>1529.501164943859</v>
       </c>
       <c r="AD9" t="n">
-        <v>1168317.346918855</v>
+        <v>1235799.939545476</v>
       </c>
       <c r="AE9" t="n">
-        <v>1598543.336578035</v>
+        <v>1690875.99693165</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.310608024795004e-06</v>
+        <v>2.596555795498936e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.49674479166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1445980.604104691</v>
+        <v>1529501.164943859</v>
       </c>
     </row>
     <row r="10">
@@ -58963,28 +58963,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1141.105964933716</v>
+        <v>1208.588557560336</v>
       </c>
       <c r="AB10" t="n">
-        <v>1561.31152326452</v>
+        <v>1653.644183618135</v>
       </c>
       <c r="AC10" t="n">
-        <v>1412.302142798639</v>
+        <v>1495.822703637808</v>
       </c>
       <c r="AD10" t="n">
-        <v>1141105.964933716</v>
+        <v>1208588.557560336</v>
       </c>
       <c r="AE10" t="n">
-        <v>1561311.52326452</v>
+        <v>1653644.183618135</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.320569652008417e-06</v>
+        <v>2.616291613061654e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.40234375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1412302.142798639</v>
+        <v>1495822.703637808</v>
       </c>
     </row>
     <row r="11">
@@ -59069,28 +59069,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1118.248547209447</v>
+        <v>1185.731139836068</v>
       </c>
       <c r="AB11" t="n">
-        <v>1530.036995936076</v>
+        <v>1622.36965628969</v>
       </c>
       <c r="AC11" t="n">
-        <v>1384.012412464346</v>
+        <v>1467.532973303515</v>
       </c>
       <c r="AD11" t="n">
-        <v>1118248.547209447</v>
+        <v>1185731.139836068</v>
       </c>
       <c r="AE11" t="n">
-        <v>1530036.995936075</v>
+        <v>1622369.65628969</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.327009491823149e-06</v>
+        <v>2.629050121385027e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.34212239583333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1384012.412464347</v>
+        <v>1467532.973303515</v>
       </c>
     </row>
     <row r="12">
@@ -59175,28 +59175,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1094.883970053149</v>
+        <v>1162.366562679769</v>
       </c>
       <c r="AB12" t="n">
-        <v>1498.068550698432</v>
+        <v>1590.401211052046</v>
       </c>
       <c r="AC12" t="n">
-        <v>1355.094990772189</v>
+        <v>1438.615551611357</v>
       </c>
       <c r="AD12" t="n">
-        <v>1094883.970053149</v>
+        <v>1162366.562679769</v>
       </c>
       <c r="AE12" t="n">
-        <v>1498068.550698432</v>
+        <v>1590401.211052046</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.333650576632091e-06</v>
+        <v>2.642207333093505e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.2802734375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1355094.990772189</v>
+        <v>1438615.551611357</v>
       </c>
     </row>
     <row r="13">
@@ -59281,28 +59281,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1079.921492310939</v>
+        <v>1147.404084937559</v>
       </c>
       <c r="AB13" t="n">
-        <v>1477.59622855361</v>
+        <v>1569.928888907224</v>
       </c>
       <c r="AC13" t="n">
-        <v>1336.576518319784</v>
+        <v>1420.097079158952</v>
       </c>
       <c r="AD13" t="n">
-        <v>1079921.492310939</v>
+        <v>1147404.084937559</v>
       </c>
       <c r="AE13" t="n">
-        <v>1477596.22855361</v>
+        <v>1569928.888907224</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.336367384053931e-06</v>
+        <v>2.647589828792428e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.255859375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1336576.518319784</v>
+        <v>1420097.079158952</v>
       </c>
     </row>
     <row r="14">
@@ -59387,28 +59387,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1082.860498998372</v>
+        <v>1150.343091624993</v>
       </c>
       <c r="AB14" t="n">
-        <v>1481.61750716318</v>
+        <v>1573.950167516794</v>
       </c>
       <c r="AC14" t="n">
-        <v>1340.214011742757</v>
+        <v>1423.734572581925</v>
       </c>
       <c r="AD14" t="n">
-        <v>1082860.498998372</v>
+        <v>1150343.091624993</v>
       </c>
       <c r="AE14" t="n">
-        <v>1481617.50716318</v>
+        <v>1573950.167516794</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.337474231522088e-06</v>
+        <v>2.649782697410507e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.24446614583333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1340214.011742757</v>
+        <v>1423734.572581925</v>
       </c>
     </row>
   </sheetData>
